--- a/Datos/Precio_Bolsa_Nacional_($kwh)_2013.xlsx
+++ b/Datos/Precio_Bolsa_Nacional_($kwh)_2013.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20365"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B6954C2-4630-4AFE-8CC4-DF3411C7AB7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C1E8AB-C747-4D7A-A7DE-7649448CFC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="135" windowWidth="16140" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Precio_Bolsa_Nacional_($kwh).rd" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1216,7 +1227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-10409]#,##0.00;\-#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1226,19 +1237,19 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1448,7 +1459,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1770,19 +1781,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA370"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="25" width="11.28515625" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" customWidth="1"/>
-    <col min="27" max="27" width="57.85546875" customWidth="1"/>
-    <col min="28" max="256" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="25" width="11.33203125" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" customWidth="1"/>
+    <col min="27" max="27" width="57.88671875" customWidth="1"/>
+    <col min="28" max="256" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="46.5" customHeight="1"/>
-    <row r="2" spans="1:27" ht="15">
+    <row r="1" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -1812,7 +1825,7 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="9"/>
     </row>
-    <row r="3" spans="1:27" ht="15">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1892,7 +1905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="13.5">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1971,12 +1984,9 @@
       <c r="Z4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="6">
-        <f>AVERAGE(B4:Y4)</f>
-        <v>159.90898333333328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="13.5">
+      <c r="AA4" s="6"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -2055,12 +2065,9 @@
       <c r="Z5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="6">
-        <f t="shared" ref="AA5:AA68" si="0">AVERAGE(B5:Y5)</f>
-        <v>190.48610866666669</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="13.5">
+      <c r="AA5" s="6"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2139,12 +2146,9 @@
       <c r="Z6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA6" s="6">
-        <f t="shared" si="0"/>
-        <v>182.89274166666655</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="13.5">
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2223,12 +2227,9 @@
       <c r="Z7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA7" s="6">
-        <f t="shared" si="0"/>
-        <v>187.60762199999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="13.5">
+      <c r="AA7" s="6"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2307,12 +2308,9 @@
       <c r="Z8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA8" s="6">
-        <f t="shared" si="0"/>
-        <v>178.16116300000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="13.5">
+      <c r="AA8" s="6"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2391,12 +2389,9 @@
       <c r="Z9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA9" s="6">
-        <f t="shared" si="0"/>
-        <v>174.21387600000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="13.5">
+      <c r="AA9" s="6"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -2475,12 +2470,9 @@
       <c r="Z10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA10" s="6">
-        <f t="shared" si="0"/>
-        <v>174.93546733333326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="13.5">
+      <c r="AA10" s="6"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -2559,12 +2551,9 @@
       <c r="Z11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA11" s="6">
-        <f t="shared" si="0"/>
-        <v>174.97894499999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="13.5">
+      <c r="AA11" s="6"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2643,12 +2632,9 @@
       <c r="Z12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA12" s="6">
-        <f t="shared" si="0"/>
-        <v>152.05655433333331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="13.5">
+      <c r="AA12" s="6"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2727,12 +2713,9 @@
       <c r="Z13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA13" s="6">
-        <f t="shared" si="0"/>
-        <v>181.61804866666674</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="13.5">
+      <c r="AA13" s="6"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -2811,12 +2794,9 @@
       <c r="Z14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA14" s="6">
-        <f t="shared" si="0"/>
-        <v>186.31985866666653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="13.5">
+      <c r="AA14" s="6"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -2895,12 +2875,9 @@
       <c r="Z15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA15" s="6">
-        <f t="shared" si="0"/>
-        <v>184.85946199999989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="13.5">
+      <c r="AA15" s="6"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -2979,12 +2956,9 @@
       <c r="Z16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA16" s="6">
-        <f t="shared" si="0"/>
-        <v>188.51463966666665</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="13.5">
+      <c r="AA16" s="6"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -3063,12 +3037,9 @@
       <c r="Z17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA17" s="6">
-        <f t="shared" si="0"/>
-        <v>192.11612999999991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="13.5">
+      <c r="AA17" s="6"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
@@ -3147,12 +3118,9 @@
       <c r="Z18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA18" s="6">
-        <f t="shared" si="0"/>
-        <v>194.21366466666674</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="13.5">
+      <c r="AA18" s="6"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -3231,12 +3199,9 @@
       <c r="Z19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA19" s="6">
-        <f t="shared" si="0"/>
-        <v>192.60257433333334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="13.5">
+      <c r="AA19" s="6"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -3315,12 +3280,9 @@
       <c r="Z20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA20" s="6">
-        <f t="shared" si="0"/>
-        <v>189.65614933333325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="13.5">
+      <c r="AA20" s="6"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -3399,12 +3361,9 @@
       <c r="Z21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA21" s="6">
-        <f t="shared" si="0"/>
-        <v>191.1854956666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="13.5">
+      <c r="AA21" s="6"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -3483,12 +3442,9 @@
       <c r="Z22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA22" s="6">
-        <f t="shared" si="0"/>
-        <v>187.98424666666662</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="13.5">
+      <c r="AA22" s="6"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -3567,12 +3523,9 @@
       <c r="Z23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA23" s="6">
-        <f t="shared" si="0"/>
-        <v>191.17349000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="13.5">
+      <c r="AA23" s="6"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -3651,12 +3604,9 @@
       <c r="Z24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA24" s="6">
-        <f t="shared" si="0"/>
-        <v>193.02573600000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="13.5">
+      <c r="AA24" s="6"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -3735,12 +3685,9 @@
       <c r="Z25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA25" s="6">
-        <f t="shared" si="0"/>
-        <v>183.29741133333326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="13.5">
+      <c r="AA25" s="6"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -3819,12 +3766,9 @@
       <c r="Z26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA26" s="6">
-        <f t="shared" si="0"/>
-        <v>183.53582200000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="13.5">
+      <c r="AA26" s="6"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -3903,12 +3847,9 @@
       <c r="Z27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA27" s="6">
-        <f t="shared" si="0"/>
-        <v>190.32240666666669</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="13.5">
+      <c r="AA27" s="6"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -3987,12 +3928,9 @@
       <c r="Z28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA28" s="6">
-        <f t="shared" si="0"/>
-        <v>200.09130866666661</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="13.5">
+      <c r="AA28" s="6"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -4071,12 +4009,9 @@
       <c r="Z29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA29" s="6">
-        <f t="shared" si="0"/>
-        <v>186.02858433333338</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="13.5">
+      <c r="AA29" s="6"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -4155,12 +4090,9 @@
       <c r="Z30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA30" s="6">
-        <f t="shared" si="0"/>
-        <v>181.0480836666666</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="13.5">
+      <c r="AA30" s="6"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
@@ -4239,12 +4171,9 @@
       <c r="Z31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA31" s="6">
-        <f t="shared" si="0"/>
-        <v>189.73473166666668</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="13.5">
+      <c r="AA31" s="6"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
@@ -4323,12 +4252,9 @@
       <c r="Z32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA32" s="6">
-        <f t="shared" si="0"/>
-        <v>164.85034566666658</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="13.5">
+      <c r="AA32" s="6"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
@@ -4407,12 +4333,9 @@
       <c r="Z33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA33" s="6">
-        <f t="shared" si="0"/>
-        <v>184.58747600000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="13.5">
+      <c r="AA33" s="6"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
@@ -4491,12 +4414,9 @@
       <c r="Z34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA34" s="6">
-        <f t="shared" si="0"/>
-        <v>206.11947866666659</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" ht="13.5">
+      <c r="AA34" s="6"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>59</v>
       </c>
@@ -4575,12 +4495,9 @@
       <c r="Z35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA35" s="6">
-        <f t="shared" si="0"/>
-        <v>204.85541699999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="13.5">
+      <c r="AA35" s="6"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
@@ -4659,12 +4576,9 @@
       <c r="Z36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA36" s="6">
-        <f t="shared" si="0"/>
-        <v>218.21256300000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="13.5">
+      <c r="AA36" s="6"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
@@ -4743,12 +4657,9 @@
       <c r="Z37" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA37" s="6">
-        <f t="shared" si="0"/>
-        <v>231.22664100000011</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="13.5">
+      <c r="AA37" s="6"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>63</v>
       </c>
@@ -4827,12 +4738,9 @@
       <c r="Z38" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA38" s="6">
-        <f t="shared" si="0"/>
-        <v>240.78832166666663</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="13.5">
+      <c r="AA38" s="6"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
@@ -4911,12 +4819,9 @@
       <c r="Z39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA39" s="6">
-        <f t="shared" si="0"/>
-        <v>214.58614533333329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" ht="13.5">
+      <c r="AA39" s="6"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>65</v>
       </c>
@@ -4995,12 +4900,9 @@
       <c r="Z40" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA40" s="6">
-        <f t="shared" si="0"/>
-        <v>208.9338226666666</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="13.5">
+      <c r="AA40" s="6"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
@@ -5079,12 +4981,9 @@
       <c r="Z41" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA41" s="6">
-        <f t="shared" si="0"/>
-        <v>220.31782066666668</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="13.5">
+      <c r="AA41" s="6"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>67</v>
       </c>
@@ -5163,12 +5062,9 @@
       <c r="Z42" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA42" s="6">
-        <f t="shared" si="0"/>
-        <v>198.60997899999995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" ht="13.5">
+      <c r="AA42" s="6"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -5247,12 +5143,9 @@
       <c r="Z43" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA43" s="6">
-        <f t="shared" si="0"/>
-        <v>197.88672899999995</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="13.5">
+      <c r="AA43" s="6"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>69</v>
       </c>
@@ -5331,12 +5224,9 @@
       <c r="Z44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA44" s="6">
-        <f t="shared" si="0"/>
-        <v>207.07031666666671</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" ht="13.5">
+      <c r="AA44" s="6"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
@@ -5415,12 +5305,9 @@
       <c r="Z45" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA45" s="6">
-        <f t="shared" si="0"/>
-        <v>195.70288500000007</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" ht="13.5">
+      <c r="AA45" s="6"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>71</v>
       </c>
@@ -5499,12 +5386,9 @@
       <c r="Z46" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA46" s="6">
-        <f t="shared" si="0"/>
-        <v>164.00263533333342</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" ht="13.5">
+      <c r="AA46" s="6"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -5583,12 +5467,9 @@
       <c r="Z47" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA47" s="6">
-        <f t="shared" si="0"/>
-        <v>185.99532099999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" ht="13.5">
+      <c r="AA47" s="6"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>73</v>
       </c>
@@ -5667,12 +5548,9 @@
       <c r="Z48" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA48" s="6">
-        <f t="shared" si="0"/>
-        <v>178.07855766666668</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" ht="13.5">
+      <c r="AA48" s="6"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -5751,12 +5629,9 @@
       <c r="Z49" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA49" s="6">
-        <f t="shared" si="0"/>
-        <v>175.98097899999991</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" ht="13.5">
+      <c r="AA49" s="6"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>75</v>
       </c>
@@ -5835,12 +5710,9 @@
       <c r="Z50" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA50" s="6">
-        <f t="shared" si="0"/>
-        <v>167.22205499999987</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" ht="13.5">
+      <c r="AA50" s="6"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
@@ -5919,12 +5791,9 @@
       <c r="Z51" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA51" s="6">
-        <f t="shared" si="0"/>
-        <v>161.18430066666664</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" ht="13.5">
+      <c r="AA51" s="6"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>77</v>
       </c>
@@ -6003,12 +5872,9 @@
       <c r="Z52" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA52" s="6">
-        <f t="shared" si="0"/>
-        <v>167.92232433333336</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" ht="13.5">
+      <c r="AA52" s="6"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
@@ -6087,12 +5953,9 @@
       <c r="Z53" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA53" s="6">
-        <f t="shared" si="0"/>
-        <v>148.33982566666666</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" ht="13.5">
+      <c r="AA53" s="6"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>79</v>
       </c>
@@ -6171,12 +6034,9 @@
       <c r="Z54" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA54" s="6">
-        <f t="shared" si="0"/>
-        <v>166.33928333333338</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" ht="13.5">
+      <c r="AA54" s="6"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
@@ -6255,12 +6115,9 @@
       <c r="Z55" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA55" s="6">
-        <f t="shared" si="0"/>
-        <v>159.8104660000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" ht="13.5">
+      <c r="AA55" s="6"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>81</v>
       </c>
@@ -6339,12 +6196,9 @@
       <c r="Z56" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA56" s="6">
-        <f t="shared" si="0"/>
-        <v>157.39195333333328</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" ht="13.5">
+      <c r="AA56" s="6"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>82</v>
       </c>
@@ -6423,12 +6277,9 @@
       <c r="Z57" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA57" s="6">
-        <f t="shared" si="0"/>
-        <v>158.07733733333328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" ht="13.5">
+      <c r="AA57" s="6"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>83</v>
       </c>
@@ -6507,12 +6358,9 @@
       <c r="Z58" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA58" s="6">
-        <f t="shared" si="0"/>
-        <v>151.26042833333332</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" ht="13.5">
+      <c r="AA58" s="6"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>84</v>
       </c>
@@ -6591,12 +6439,9 @@
       <c r="Z59" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA59" s="6">
-        <f t="shared" si="0"/>
-        <v>147.29312166666662</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" ht="13.5">
+      <c r="AA59" s="6"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>85</v>
       </c>
@@ -6675,12 +6520,9 @@
       <c r="Z60" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA60" s="6">
-        <f t="shared" si="0"/>
-        <v>154.49623300000005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" ht="13.5">
+      <c r="AA60" s="6"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>86</v>
       </c>
@@ -6759,12 +6601,9 @@
       <c r="Z61" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA61" s="6">
-        <f t="shared" si="0"/>
-        <v>147.39482099999995</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" ht="13.5">
+      <c r="AA61" s="6"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>87</v>
       </c>
@@ -6843,12 +6682,9 @@
       <c r="Z62" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA62" s="6">
-        <f t="shared" si="0"/>
-        <v>143.97891233333328</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" ht="13.5">
+      <c r="AA62" s="6"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>88</v>
       </c>
@@ -6927,12 +6763,9 @@
       <c r="Z63" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA63" s="6">
-        <f t="shared" si="0"/>
-        <v>153.19752566666671</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" ht="13.5">
+      <c r="AA63" s="6"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>89</v>
       </c>
@@ -7011,12 +6844,9 @@
       <c r="Z64" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA64" s="6">
-        <f t="shared" si="0"/>
-        <v>151.78972133333335</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" ht="13.5">
+      <c r="AA64" s="6"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>90</v>
       </c>
@@ -7095,12 +6925,9 @@
       <c r="Z65" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA65" s="6">
-        <f t="shared" si="0"/>
-        <v>145.40035366666669</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" ht="13.5">
+      <c r="AA65" s="6"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>91</v>
       </c>
@@ -7179,12 +7006,9 @@
       <c r="Z66" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA66" s="6">
-        <f t="shared" si="0"/>
-        <v>156.85782400000005</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" ht="13.5">
+      <c r="AA66" s="6"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>92</v>
       </c>
@@ -7263,12 +7087,9 @@
       <c r="Z67" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA67" s="6">
-        <f t="shared" si="0"/>
-        <v>209.41787399999996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" ht="13.5">
+      <c r="AA67" s="6"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>93</v>
       </c>
@@ -7347,12 +7168,9 @@
       <c r="Z68" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA68" s="6">
-        <f t="shared" si="0"/>
-        <v>178.88139633333336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" ht="13.5">
+      <c r="AA68" s="6"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>94</v>
       </c>
@@ -7431,12 +7249,9 @@
       <c r="Z69" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA69" s="6">
-        <f t="shared" ref="AA69:AA132" si="1">AVERAGE(B69:Y69)</f>
-        <v>176.13329133333332</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" ht="13.5">
+      <c r="AA69" s="6"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>95</v>
       </c>
@@ -7515,12 +7330,9 @@
       <c r="Z70" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA70" s="6">
-        <f t="shared" si="1"/>
-        <v>147.33545599999997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" ht="13.5">
+      <c r="AA70" s="6"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>96</v>
       </c>
@@ -7599,12 +7411,9 @@
       <c r="Z71" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA71" s="6">
-        <f t="shared" si="1"/>
-        <v>174.7742999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" ht="13.5">
+      <c r="AA71" s="6"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>97</v>
       </c>
@@ -7683,12 +7492,9 @@
       <c r="Z72" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA72" s="6">
-        <f t="shared" si="1"/>
-        <v>171.46973000000006</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" ht="13.5">
+      <c r="AA72" s="6"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>98</v>
       </c>
@@ -7767,12 +7573,9 @@
       <c r="Z73" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA73" s="6">
-        <f t="shared" si="1"/>
-        <v>167.06782300000006</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" ht="13.5">
+      <c r="AA73" s="6"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>99</v>
       </c>
@@ -7851,12 +7654,9 @@
       <c r="Z74" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA74" s="6">
-        <f t="shared" si="1"/>
-        <v>152.76402533333334</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" ht="13.5">
+      <c r="AA74" s="6"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>100</v>
       </c>
@@ -7935,12 +7735,9 @@
       <c r="Z75" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA75" s="6">
-        <f t="shared" si="1"/>
-        <v>142.22306599999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" ht="13.5">
+      <c r="AA75" s="6"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>101</v>
       </c>
@@ -8019,12 +7816,9 @@
       <c r="Z76" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA76" s="6">
-        <f t="shared" si="1"/>
-        <v>149.42845966666667</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" ht="13.5">
+      <c r="AA76" s="6"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>102</v>
       </c>
@@ -8103,12 +7897,9 @@
       <c r="Z77" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA77" s="6">
-        <f t="shared" si="1"/>
-        <v>140.80650366666669</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" ht="13.5">
+      <c r="AA77" s="6"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>103</v>
       </c>
@@ -8187,12 +7978,9 @@
       <c r="Z78" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA78" s="6">
-        <f t="shared" si="1"/>
-        <v>122.02772499999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" ht="13.5">
+      <c r="AA78" s="6"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>104</v>
       </c>
@@ -8271,12 +8059,9 @@
       <c r="Z79" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA79" s="6">
-        <f t="shared" si="1"/>
-        <v>128.55511266666667</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" ht="13.5">
+      <c r="AA79" s="6"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>105</v>
       </c>
@@ -8355,12 +8140,9 @@
       <c r="Z80" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA80" s="6">
-        <f t="shared" si="1"/>
-        <v>123.61670900000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" ht="13.5">
+      <c r="AA80" s="6"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>106</v>
       </c>
@@ -8439,12 +8221,9 @@
       <c r="Z81" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA81" s="6">
-        <f t="shared" si="1"/>
-        <v>125.89848899999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" ht="13.5">
+      <c r="AA81" s="6"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>107</v>
       </c>
@@ -8523,12 +8302,9 @@
       <c r="Z82" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA82" s="6">
-        <f t="shared" si="1"/>
-        <v>129.03774366666667</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" ht="13.5">
+      <c r="AA82" s="6"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>108</v>
       </c>
@@ -8607,12 +8383,9 @@
       <c r="Z83" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA83" s="6">
-        <f t="shared" si="1"/>
-        <v>96.226594666666657</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" ht="13.5">
+      <c r="AA83" s="6"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>109</v>
       </c>
@@ -8691,12 +8464,9 @@
       <c r="Z84" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA84" s="6">
-        <f t="shared" si="1"/>
-        <v>118.97385500000006</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" ht="13.5">
+      <c r="AA84" s="6"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>110</v>
       </c>
@@ -8775,12 +8545,9 @@
       <c r="Z85" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA85" s="6">
-        <f t="shared" si="1"/>
-        <v>107.005848</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" ht="13.5">
+      <c r="AA85" s="6"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>111</v>
       </c>
@@ -8859,12 +8626,9 @@
       <c r="Z86" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA86" s="6">
-        <f t="shared" si="1"/>
-        <v>81.701215000000005</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" ht="13.5">
+      <c r="AA86" s="6"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>112</v>
       </c>
@@ -8943,12 +8707,9 @@
       <c r="Z87" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA87" s="6">
-        <f t="shared" si="1"/>
-        <v>94.741685333333308</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" ht="13.5">
+      <c r="AA87" s="6"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>113</v>
       </c>
@@ -9027,12 +8788,9 @@
       <c r="Z88" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA88" s="6">
-        <f t="shared" si="1"/>
-        <v>115.51376599999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" ht="13.5">
+      <c r="AA88" s="6"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>114</v>
       </c>
@@ -9111,12 +8869,9 @@
       <c r="Z89" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA89" s="6">
-        <f t="shared" si="1"/>
-        <v>97.711877000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" ht="13.5">
+      <c r="AA89" s="6"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>115</v>
       </c>
@@ -9195,12 +8950,9 @@
       <c r="Z90" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA90" s="6">
-        <f t="shared" si="1"/>
-        <v>99.617272</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" ht="13.5">
+      <c r="AA90" s="6"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>116</v>
       </c>
@@ -9279,12 +9031,9 @@
       <c r="Z91" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA91" s="6">
-        <f t="shared" si="1"/>
-        <v>106.50956933333329</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" ht="13.5">
+      <c r="AA91" s="6"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>117</v>
       </c>
@@ -9363,12 +9112,9 @@
       <c r="Z92" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA92" s="6">
-        <f t="shared" si="1"/>
-        <v>137.84670999999994</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27" ht="13.5">
+      <c r="AA92" s="6"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>118</v>
       </c>
@@ -9447,12 +9193,9 @@
       <c r="Z93" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA93" s="6">
-        <f t="shared" si="1"/>
-        <v>161.17271433333326</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" ht="13.5">
+      <c r="AA93" s="6"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>119</v>
       </c>
@@ -9531,12 +9274,9 @@
       <c r="Z94" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA94" s="6">
-        <f t="shared" si="1"/>
-        <v>157.38822233333329</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27" ht="13.5">
+      <c r="AA94" s="6"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>121</v>
       </c>
@@ -9615,12 +9355,9 @@
       <c r="Z95" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA95" s="6">
-        <f t="shared" si="1"/>
-        <v>173.09451633333336</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27" ht="13.5">
+      <c r="AA95" s="6"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>122</v>
       </c>
@@ -9699,12 +9436,9 @@
       <c r="Z96" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA96" s="6">
-        <f t="shared" si="1"/>
-        <v>176.0406423333333</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27" ht="13.5">
+      <c r="AA96" s="6"/>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>123</v>
       </c>
@@ -9783,12 +9517,9 @@
       <c r="Z97" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA97" s="6">
-        <f t="shared" si="1"/>
-        <v>178.62059533333334</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27" ht="13.5">
+      <c r="AA97" s="6"/>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>124</v>
       </c>
@@ -9867,12 +9598,9 @@
       <c r="Z98" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA98" s="6">
-        <f t="shared" si="1"/>
-        <v>181.51200600000004</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27" ht="13.5">
+      <c r="AA98" s="6"/>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>125</v>
       </c>
@@ -9951,12 +9679,9 @@
       <c r="Z99" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA99" s="6">
-        <f t="shared" si="1"/>
-        <v>179.98036833333336</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27" ht="13.5">
+      <c r="AA99" s="6"/>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>126</v>
       </c>
@@ -10035,12 +9760,9 @@
       <c r="Z100" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA100" s="6">
-        <f t="shared" si="1"/>
-        <v>205.9430513333333</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27" ht="13.5">
+      <c r="AA100" s="6"/>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>127</v>
       </c>
@@ -10119,12 +9841,9 @@
       <c r="Z101" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA101" s="6">
-        <f t="shared" si="1"/>
-        <v>198.79797766666658</v>
-      </c>
-    </row>
-    <row r="102" spans="1:27" ht="13.5">
+      <c r="AA101" s="6"/>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>128</v>
       </c>
@@ -10203,12 +9922,9 @@
       <c r="Z102" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA102" s="6">
-        <f t="shared" si="1"/>
-        <v>220.61244833333339</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27" ht="13.5">
+      <c r="AA102" s="6"/>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>129</v>
       </c>
@@ -10287,12 +10003,9 @@
       <c r="Z103" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA103" s="6">
-        <f t="shared" si="1"/>
-        <v>224.301637</v>
-      </c>
-    </row>
-    <row r="104" spans="1:27" ht="13.5">
+      <c r="AA103" s="6"/>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>130</v>
       </c>
@@ -10371,12 +10084,9 @@
       <c r="Z104" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA104" s="6">
-        <f t="shared" si="1"/>
-        <v>242.10305733333337</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27" ht="13.5">
+      <c r="AA104" s="6"/>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>131</v>
       </c>
@@ -10455,12 +10165,9 @@
       <c r="Z105" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA105" s="6">
-        <f t="shared" si="1"/>
-        <v>275.46581766666668</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27" ht="13.5">
+      <c r="AA105" s="6"/>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>132</v>
       </c>
@@ -10539,12 +10246,9 @@
       <c r="Z106" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA106" s="6">
-        <f t="shared" si="1"/>
-        <v>259.43022433333334</v>
-      </c>
-    </row>
-    <row r="107" spans="1:27" ht="13.5">
+      <c r="AA106" s="6"/>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>133</v>
       </c>
@@ -10623,12 +10327,9 @@
       <c r="Z107" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA107" s="6">
-        <f t="shared" si="1"/>
-        <v>299.24734300000011</v>
-      </c>
-    </row>
-    <row r="108" spans="1:27" ht="13.5">
+      <c r="AA107" s="6"/>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>134</v>
       </c>
@@ -10707,12 +10408,9 @@
       <c r="Z108" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA108" s="6">
-        <f t="shared" si="1"/>
-        <v>359.72445899999997</v>
-      </c>
-    </row>
-    <row r="109" spans="1:27" ht="13.5">
+      <c r="AA108" s="6"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>135</v>
       </c>
@@ -10791,12 +10489,9 @@
       <c r="Z109" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA109" s="6">
-        <f t="shared" si="1"/>
-        <v>394.27650466666682</v>
-      </c>
-    </row>
-    <row r="110" spans="1:27" ht="13.5">
+      <c r="AA109" s="6"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>136</v>
       </c>
@@ -10875,12 +10570,9 @@
       <c r="Z110" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA110" s="6">
-        <f t="shared" si="1"/>
-        <v>398.87043366666666</v>
-      </c>
-    </row>
-    <row r="111" spans="1:27" ht="13.5">
+      <c r="AA110" s="6"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>137</v>
       </c>
@@ -10959,12 +10651,9 @@
       <c r="Z111" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA111" s="6">
-        <f t="shared" si="1"/>
-        <v>391.22183066666656</v>
-      </c>
-    </row>
-    <row r="112" spans="1:27" ht="13.5">
+      <c r="AA111" s="6"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>138</v>
       </c>
@@ -11043,12 +10732,9 @@
       <c r="Z112" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA112" s="6">
-        <f t="shared" si="1"/>
-        <v>341.09528633333338</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27" ht="13.5">
+      <c r="AA112" s="6"/>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>139</v>
       </c>
@@ -11127,12 +10813,9 @@
       <c r="Z113" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA113" s="6">
-        <f t="shared" si="1"/>
-        <v>356.90808766666646</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27" ht="13.5">
+      <c r="AA113" s="6"/>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>140</v>
       </c>
@@ -11211,12 +10894,9 @@
       <c r="Z114" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA114" s="6">
-        <f t="shared" si="1"/>
-        <v>233.33436399999994</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27" ht="13.5">
+      <c r="AA114" s="6"/>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>141</v>
       </c>
@@ -11295,12 +10975,9 @@
       <c r="Z115" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA115" s="6">
-        <f t="shared" si="1"/>
-        <v>191.39138700000004</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27" ht="13.5">
+      <c r="AA115" s="6"/>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>142</v>
       </c>
@@ -11379,12 +11056,9 @@
       <c r="Z116" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA116" s="6">
-        <f t="shared" si="1"/>
-        <v>152.80410666666668</v>
-      </c>
-    </row>
-    <row r="117" spans="1:27" ht="13.5">
+      <c r="AA116" s="6"/>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>143</v>
       </c>
@@ -11463,12 +11137,9 @@
       <c r="Z117" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA117" s="6">
-        <f t="shared" si="1"/>
-        <v>143.79242933333333</v>
-      </c>
-    </row>
-    <row r="118" spans="1:27" ht="13.5">
+      <c r="AA117" s="6"/>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>144</v>
       </c>
@@ -11547,12 +11218,9 @@
       <c r="Z118" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA118" s="6">
-        <f t="shared" si="1"/>
-        <v>148.48184666666674</v>
-      </c>
-    </row>
-    <row r="119" spans="1:27" ht="13.5">
+      <c r="AA118" s="6"/>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>145</v>
       </c>
@@ -11631,12 +11299,9 @@
       <c r="Z119" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA119" s="6">
-        <f t="shared" si="1"/>
-        <v>163.17395066666663</v>
-      </c>
-    </row>
-    <row r="120" spans="1:27" ht="13.5">
+      <c r="AA119" s="6"/>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>146</v>
       </c>
@@ -11715,12 +11380,9 @@
       <c r="Z120" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA120" s="6">
-        <f t="shared" si="1"/>
-        <v>162.43899533333334</v>
-      </c>
-    </row>
-    <row r="121" spans="1:27" ht="13.5">
+      <c r="AA120" s="6"/>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>147</v>
       </c>
@@ -11799,12 +11461,9 @@
       <c r="Z121" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA121" s="6">
-        <f t="shared" si="1"/>
-        <v>160.06465433333324</v>
-      </c>
-    </row>
-    <row r="122" spans="1:27" ht="13.5">
+      <c r="AA121" s="6"/>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>148</v>
       </c>
@@ -11883,12 +11542,9 @@
       <c r="Z122" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA122" s="6">
-        <f t="shared" si="1"/>
-        <v>160.1223576666666</v>
-      </c>
-    </row>
-    <row r="123" spans="1:27" ht="13.5">
+      <c r="AA122" s="6"/>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>149</v>
       </c>
@@ -11967,12 +11623,9 @@
       <c r="Z123" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA123" s="6">
-        <f t="shared" si="1"/>
-        <v>164.48808533333326</v>
-      </c>
-    </row>
-    <row r="124" spans="1:27" ht="13.5">
+      <c r="AA123" s="6"/>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>150</v>
       </c>
@@ -12051,12 +11704,9 @@
       <c r="Z124" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA124" s="6">
-        <f t="shared" si="1"/>
-        <v>152.42177366666672</v>
-      </c>
-    </row>
-    <row r="125" spans="1:27" ht="13.5">
+      <c r="AA124" s="6"/>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>151</v>
       </c>
@@ -12135,12 +11785,9 @@
       <c r="Z125" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA125" s="6">
-        <f t="shared" si="1"/>
-        <v>153.99255533333329</v>
-      </c>
-    </row>
-    <row r="126" spans="1:27" ht="13.5">
+      <c r="AA125" s="6"/>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>152</v>
       </c>
@@ -12219,12 +11866,9 @@
       <c r="Z126" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA126" s="6">
-        <f t="shared" si="1"/>
-        <v>164.32599200000007</v>
-      </c>
-    </row>
-    <row r="127" spans="1:27" ht="13.5">
+      <c r="AA126" s="6"/>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>153</v>
       </c>
@@ -12303,12 +11947,9 @@
       <c r="Z127" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA127" s="6">
-        <f t="shared" si="1"/>
-        <v>166.17110399999996</v>
-      </c>
-    </row>
-    <row r="128" spans="1:27" ht="13.5">
+      <c r="AA127" s="6"/>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>154</v>
       </c>
@@ -12387,12 +12028,9 @@
       <c r="Z128" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA128" s="6">
-        <f t="shared" si="1"/>
-        <v>164.93375233333325</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27" ht="13.5">
+      <c r="AA128" s="6"/>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>155</v>
       </c>
@@ -12471,12 +12109,9 @@
       <c r="Z129" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA129" s="6">
-        <f t="shared" si="1"/>
-        <v>160.4585883333333</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27" ht="13.5">
+      <c r="AA129" s="6"/>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>156</v>
       </c>
@@ -12555,12 +12190,9 @@
       <c r="Z130" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA130" s="6">
-        <f t="shared" si="1"/>
-        <v>147.73169966666663</v>
-      </c>
-    </row>
-    <row r="131" spans="1:27" ht="13.5">
+      <c r="AA130" s="6"/>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>157</v>
       </c>
@@ -12639,12 +12271,9 @@
       <c r="Z131" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA131" s="6">
-        <f t="shared" si="1"/>
-        <v>159.31169266666672</v>
-      </c>
-    </row>
-    <row r="132" spans="1:27" ht="13.5">
+      <c r="AA131" s="6"/>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>158</v>
       </c>
@@ -12723,12 +12352,9 @@
       <c r="Z132" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA132" s="6">
-        <f t="shared" si="1"/>
-        <v>151.5400046666667</v>
-      </c>
-    </row>
-    <row r="133" spans="1:27" ht="13.5">
+      <c r="AA132" s="6"/>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>159</v>
       </c>
@@ -12807,12 +12433,9 @@
       <c r="Z133" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA133" s="6">
-        <f t="shared" ref="AA133:AA196" si="2">AVERAGE(B133:Y133)</f>
-        <v>154.71243300000006</v>
-      </c>
-    </row>
-    <row r="134" spans="1:27" ht="13.5">
+      <c r="AA133" s="6"/>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>160</v>
       </c>
@@ -12891,12 +12514,9 @@
       <c r="Z134" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA134" s="6">
-        <f t="shared" si="2"/>
-        <v>173.30569166666672</v>
-      </c>
-    </row>
-    <row r="135" spans="1:27" ht="13.5">
+      <c r="AA134" s="6"/>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>161</v>
       </c>
@@ -12975,12 +12595,9 @@
       <c r="Z135" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA135" s="6">
-        <f t="shared" si="2"/>
-        <v>153.07493233333335</v>
-      </c>
-    </row>
-    <row r="136" spans="1:27" ht="13.5">
+      <c r="AA135" s="6"/>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>162</v>
       </c>
@@ -13059,12 +12676,9 @@
       <c r="Z136" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA136" s="6">
-        <f t="shared" si="2"/>
-        <v>159.58827433333337</v>
-      </c>
-    </row>
-    <row r="137" spans="1:27" ht="13.5">
+      <c r="AA136" s="6"/>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>163</v>
       </c>
@@ -13143,12 +12757,9 @@
       <c r="Z137" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA137" s="6">
-        <f t="shared" si="2"/>
-        <v>169.16701766666668</v>
-      </c>
-    </row>
-    <row r="138" spans="1:27" ht="13.5">
+      <c r="AA137" s="6"/>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>164</v>
       </c>
@@ -13227,12 +12838,9 @@
       <c r="Z138" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA138" s="6">
-        <f t="shared" si="2"/>
-        <v>181.27675666666667</v>
-      </c>
-    </row>
-    <row r="139" spans="1:27" ht="13.5">
+      <c r="AA138" s="6"/>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>165</v>
       </c>
@@ -13311,12 +12919,9 @@
       <c r="Z139" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA139" s="6">
-        <f t="shared" si="2"/>
-        <v>167.56848500000007</v>
-      </c>
-    </row>
-    <row r="140" spans="1:27" ht="13.5">
+      <c r="AA139" s="6"/>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>166</v>
       </c>
@@ -13395,12 +13000,9 @@
       <c r="Z140" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA140" s="6">
-        <f t="shared" si="2"/>
-        <v>155.11168599999999</v>
-      </c>
-    </row>
-    <row r="141" spans="1:27" ht="13.5">
+      <c r="AA140" s="6"/>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>167</v>
       </c>
@@ -13479,12 +13081,9 @@
       <c r="Z141" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA141" s="6">
-        <f t="shared" si="2"/>
-        <v>151.11719133333341</v>
-      </c>
-    </row>
-    <row r="142" spans="1:27" ht="13.5">
+      <c r="AA141" s="6"/>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>168</v>
       </c>
@@ -13563,12 +13162,9 @@
       <c r="Z142" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA142" s="6">
-        <f t="shared" si="2"/>
-        <v>137.62677200000005</v>
-      </c>
-    </row>
-    <row r="143" spans="1:27" ht="13.5">
+      <c r="AA142" s="6"/>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>169</v>
       </c>
@@ -13647,12 +13243,9 @@
       <c r="Z143" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA143" s="6">
-        <f t="shared" si="2"/>
-        <v>139.45115366666661</v>
-      </c>
-    </row>
-    <row r="144" spans="1:27" ht="13.5">
+      <c r="AA143" s="6"/>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>170</v>
       </c>
@@ -13731,12 +13324,9 @@
       <c r="Z144" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA144" s="6">
-        <f t="shared" si="2"/>
-        <v>132.28595433333336</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27" ht="13.5">
+      <c r="AA144" s="6"/>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>171</v>
       </c>
@@ -13815,12 +13405,9 @@
       <c r="Z145" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA145" s="6">
-        <f t="shared" si="2"/>
-        <v>136.83653566666669</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27" ht="13.5">
+      <c r="AA145" s="6"/>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>172</v>
       </c>
@@ -13899,12 +13486,9 @@
       <c r="Z146" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA146" s="6">
-        <f t="shared" si="2"/>
-        <v>108.38206533333334</v>
-      </c>
-    </row>
-    <row r="147" spans="1:27" ht="13.5">
+      <c r="AA146" s="6"/>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>173</v>
       </c>
@@ -13983,12 +13567,9 @@
       <c r="Z147" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA147" s="6">
-        <f t="shared" si="2"/>
-        <v>121.52642633333335</v>
-      </c>
-    </row>
-    <row r="148" spans="1:27" ht="13.5">
+      <c r="AA147" s="6"/>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>174</v>
       </c>
@@ -14067,12 +13648,9 @@
       <c r="Z148" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA148" s="6">
-        <f t="shared" si="2"/>
-        <v>116.9221946666667</v>
-      </c>
-    </row>
-    <row r="149" spans="1:27" ht="13.5">
+      <c r="AA148" s="6"/>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>175</v>
       </c>
@@ -14151,12 +13729,9 @@
       <c r="Z149" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA149" s="6">
-        <f t="shared" si="2"/>
-        <v>54.544142999999998</v>
-      </c>
-    </row>
-    <row r="150" spans="1:27" ht="13.5">
+      <c r="AA149" s="6"/>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>176</v>
       </c>
@@ -14235,12 +13810,9 @@
       <c r="Z150" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA150" s="6">
-        <f t="shared" si="2"/>
-        <v>112.62520866666665</v>
-      </c>
-    </row>
-    <row r="151" spans="1:27" ht="13.5">
+      <c r="AA150" s="6"/>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>177</v>
       </c>
@@ -14319,12 +13891,9 @@
       <c r="Z151" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA151" s="6">
-        <f t="shared" si="2"/>
-        <v>100.15418366666664</v>
-      </c>
-    </row>
-    <row r="152" spans="1:27" ht="13.5">
+      <c r="AA151" s="6"/>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>178</v>
       </c>
@@ -14403,12 +13972,9 @@
       <c r="Z152" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA152" s="6">
-        <f t="shared" si="2"/>
-        <v>111.45440466666668</v>
-      </c>
-    </row>
-    <row r="153" spans="1:27" ht="13.5">
+      <c r="AA152" s="6"/>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>179</v>
       </c>
@@ -14487,12 +14053,9 @@
       <c r="Z153" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA153" s="6">
-        <f t="shared" si="2"/>
-        <v>87.019678333333346</v>
-      </c>
-    </row>
-    <row r="154" spans="1:27" ht="13.5">
+      <c r="AA153" s="6"/>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>180</v>
       </c>
@@ -14571,12 +14134,9 @@
       <c r="Z154" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA154" s="6">
-        <f t="shared" si="2"/>
-        <v>89.631354333333363</v>
-      </c>
-    </row>
-    <row r="155" spans="1:27" ht="13.5">
+      <c r="AA154" s="6"/>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>181</v>
       </c>
@@ -14655,12 +14215,9 @@
       <c r="Z155" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA155" s="6">
-        <f t="shared" si="2"/>
-        <v>80.618353999999997</v>
-      </c>
-    </row>
-    <row r="156" spans="1:27" ht="13.5">
+      <c r="AA155" s="6"/>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>182</v>
       </c>
@@ -14739,12 +14296,9 @@
       <c r="Z156" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA156" s="6">
-        <f t="shared" si="2"/>
-        <v>108.12882866666662</v>
-      </c>
-    </row>
-    <row r="157" spans="1:27" ht="13.5">
+      <c r="AA156" s="6"/>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>183</v>
       </c>
@@ -14823,12 +14377,9 @@
       <c r="Z157" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA157" s="6">
-        <f t="shared" si="2"/>
-        <v>115.95741500000001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:27" ht="13.5">
+      <c r="AA157" s="6"/>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>184</v>
       </c>
@@ -14907,12 +14458,9 @@
       <c r="Z158" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA158" s="6">
-        <f t="shared" si="2"/>
-        <v>153.68505399999992</v>
-      </c>
-    </row>
-    <row r="159" spans="1:27" ht="13.5">
+      <c r="AA158" s="6"/>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>185</v>
       </c>
@@ -14991,12 +14539,9 @@
       <c r="Z159" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA159" s="6">
-        <f t="shared" si="2"/>
-        <v>132.98666333333338</v>
-      </c>
-    </row>
-    <row r="160" spans="1:27" ht="13.5">
+      <c r="AA159" s="6"/>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>186</v>
       </c>
@@ -15075,12 +14620,9 @@
       <c r="Z160" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA160" s="6">
-        <f t="shared" si="2"/>
-        <v>131.01999499999997</v>
-      </c>
-    </row>
-    <row r="161" spans="1:27" ht="13.5">
+      <c r="AA160" s="6"/>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>187</v>
       </c>
@@ -15159,12 +14701,9 @@
       <c r="Z161" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA161" s="6">
-        <f t="shared" si="2"/>
-        <v>132.37806033333331</v>
-      </c>
-    </row>
-    <row r="162" spans="1:27" ht="13.5">
+      <c r="AA161" s="6"/>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>188</v>
       </c>
@@ -15243,12 +14782,9 @@
       <c r="Z162" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA162" s="6">
-        <f t="shared" si="2"/>
-        <v>124.19696899999998</v>
-      </c>
-    </row>
-    <row r="163" spans="1:27" ht="13.5">
+      <c r="AA162" s="6"/>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>189</v>
       </c>
@@ -15327,12 +14863,9 @@
       <c r="Z163" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA163" s="6">
-        <f t="shared" si="2"/>
-        <v>129.83385766666663</v>
-      </c>
-    </row>
-    <row r="164" spans="1:27" ht="13.5">
+      <c r="AA163" s="6"/>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>190</v>
       </c>
@@ -15411,12 +14944,9 @@
       <c r="Z164" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA164" s="6">
-        <f t="shared" si="2"/>
-        <v>138.1374753333333</v>
-      </c>
-    </row>
-    <row r="165" spans="1:27" ht="13.5">
+      <c r="AA164" s="6"/>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>191</v>
       </c>
@@ -15495,12 +15025,9 @@
       <c r="Z165" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA165" s="6">
-        <f t="shared" si="2"/>
-        <v>131.84404433333336</v>
-      </c>
-    </row>
-    <row r="166" spans="1:27" ht="13.5">
+      <c r="AA165" s="6"/>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>192</v>
       </c>
@@ -15579,12 +15106,9 @@
       <c r="Z166" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA166" s="6">
-        <f t="shared" si="2"/>
-        <v>152.79565066666675</v>
-      </c>
-    </row>
-    <row r="167" spans="1:27" ht="13.5">
+      <c r="AA166" s="6"/>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>193</v>
       </c>
@@ -15663,12 +15187,9 @@
       <c r="Z167" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA167" s="6">
-        <f t="shared" si="2"/>
-        <v>158.98186333333331</v>
-      </c>
-    </row>
-    <row r="168" spans="1:27" ht="13.5">
+      <c r="AA167" s="6"/>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>194</v>
       </c>
@@ -15747,12 +15268,9 @@
       <c r="Z168" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA168" s="6">
-        <f t="shared" si="2"/>
-        <v>137.31094466666664</v>
-      </c>
-    </row>
-    <row r="169" spans="1:27" ht="13.5">
+      <c r="AA168" s="6"/>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>195</v>
       </c>
@@ -15831,12 +15349,9 @@
       <c r="Z169" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA169" s="6">
-        <f t="shared" si="2"/>
-        <v>139.69109766666665</v>
-      </c>
-    </row>
-    <row r="170" spans="1:27" ht="13.5">
+      <c r="AA169" s="6"/>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>196</v>
       </c>
@@ -15915,12 +15430,9 @@
       <c r="Z170" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA170" s="6">
-        <f t="shared" si="2"/>
-        <v>134.88427066666668</v>
-      </c>
-    </row>
-    <row r="171" spans="1:27" ht="13.5">
+      <c r="AA170" s="6"/>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>197</v>
       </c>
@@ -15999,12 +15511,9 @@
       <c r="Z171" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA171" s="6">
-        <f t="shared" si="2"/>
-        <v>128.37092099999998</v>
-      </c>
-    </row>
-    <row r="172" spans="1:27" ht="13.5">
+      <c r="AA171" s="6"/>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>198</v>
       </c>
@@ -16083,12 +15592,9 @@
       <c r="Z172" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA172" s="6">
-        <f t="shared" si="2"/>
-        <v>136.24140033333339</v>
-      </c>
-    </row>
-    <row r="173" spans="1:27" ht="13.5">
+      <c r="AA172" s="6"/>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>199</v>
       </c>
@@ -16167,12 +15673,9 @@
       <c r="Z173" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA173" s="6">
-        <f t="shared" si="2"/>
-        <v>122.64910700000003</v>
-      </c>
-    </row>
-    <row r="174" spans="1:27" ht="13.5">
+      <c r="AA173" s="6"/>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>200</v>
       </c>
@@ -16251,12 +15754,9 @@
       <c r="Z174" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA174" s="6">
-        <f t="shared" si="2"/>
-        <v>138.43790266666667</v>
-      </c>
-    </row>
-    <row r="175" spans="1:27" ht="13.5">
+      <c r="AA174" s="6"/>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>201</v>
       </c>
@@ -16335,12 +15835,9 @@
       <c r="Z175" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA175" s="6">
-        <f t="shared" si="2"/>
-        <v>146.90978199999992</v>
-      </c>
-    </row>
-    <row r="176" spans="1:27" ht="13.5">
+      <c r="AA175" s="6"/>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>202</v>
       </c>
@@ -16419,12 +15916,9 @@
       <c r="Z176" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA176" s="6">
-        <f t="shared" si="2"/>
-        <v>145.84779466666669</v>
-      </c>
-    </row>
-    <row r="177" spans="1:27" ht="13.5">
+      <c r="AA176" s="6"/>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>203</v>
       </c>
@@ -16503,12 +15997,9 @@
       <c r="Z177" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA177" s="6">
-        <f t="shared" si="2"/>
-        <v>153.86052933333337</v>
-      </c>
-    </row>
-    <row r="178" spans="1:27" ht="13.5">
+      <c r="AA177" s="6"/>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>204</v>
       </c>
@@ -16587,12 +16078,9 @@
       <c r="Z178" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA178" s="6">
-        <f t="shared" si="2"/>
-        <v>176.69473500000001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:27" ht="13.5">
+      <c r="AA178" s="6"/>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>205</v>
       </c>
@@ -16671,12 +16159,9 @@
       <c r="Z179" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA179" s="6">
-        <f t="shared" si="2"/>
-        <v>198.55423133333332</v>
-      </c>
-    </row>
-    <row r="180" spans="1:27" ht="13.5">
+      <c r="AA179" s="6"/>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>206</v>
       </c>
@@ -16755,12 +16240,9 @@
       <c r="Z180" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA180" s="6">
-        <f t="shared" si="2"/>
-        <v>191.82431299999993</v>
-      </c>
-    </row>
-    <row r="181" spans="1:27" ht="13.5">
+      <c r="AA180" s="6"/>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>207</v>
       </c>
@@ -16839,12 +16321,9 @@
       <c r="Z181" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA181" s="6">
-        <f t="shared" si="2"/>
-        <v>183.96127033333335</v>
-      </c>
-    </row>
-    <row r="182" spans="1:27" ht="13.5">
+      <c r="AA181" s="6"/>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>208</v>
       </c>
@@ -16923,12 +16402,9 @@
       <c r="Z182" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA182" s="6">
-        <f t="shared" si="2"/>
-        <v>182.155079</v>
-      </c>
-    </row>
-    <row r="183" spans="1:27" ht="13.5">
+      <c r="AA182" s="6"/>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>209</v>
       </c>
@@ -17007,12 +16483,9 @@
       <c r="Z183" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA183" s="6">
-        <f t="shared" si="2"/>
-        <v>162.79949266666662</v>
-      </c>
-    </row>
-    <row r="184" spans="1:27" ht="13.5">
+      <c r="AA183" s="6"/>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>210</v>
       </c>
@@ -17091,12 +16564,9 @@
       <c r="Z184" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA184" s="6">
-        <f t="shared" si="2"/>
-        <v>122.31362966666666</v>
-      </c>
-    </row>
-    <row r="185" spans="1:27" ht="13.5">
+      <c r="AA184" s="6"/>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>211</v>
       </c>
@@ -17175,12 +16645,9 @@
       <c r="Z185" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA185" s="6">
-        <f t="shared" si="2"/>
-        <v>147.17623033333328</v>
-      </c>
-    </row>
-    <row r="186" spans="1:27" ht="13.5">
+      <c r="AA185" s="6"/>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>212</v>
       </c>
@@ -17259,12 +16726,9 @@
       <c r="Z186" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA186" s="6">
-        <f t="shared" si="2"/>
-        <v>171.81586366666662</v>
-      </c>
-    </row>
-    <row r="187" spans="1:27" ht="13.5">
+      <c r="AA186" s="6"/>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>213</v>
       </c>
@@ -17343,12 +16807,9 @@
       <c r="Z187" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA187" s="6">
-        <f t="shared" si="2"/>
-        <v>180.394498</v>
-      </c>
-    </row>
-    <row r="188" spans="1:27" ht="13.5">
+      <c r="AA187" s="6"/>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>214</v>
       </c>
@@ -17427,12 +16888,9 @@
       <c r="Z188" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA188" s="6">
-        <f t="shared" si="2"/>
-        <v>180.02131933333328</v>
-      </c>
-    </row>
-    <row r="189" spans="1:27" ht="13.5">
+      <c r="AA188" s="6"/>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>215</v>
       </c>
@@ -17511,12 +16969,9 @@
       <c r="Z189" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA189" s="6">
-        <f t="shared" si="2"/>
-        <v>192.79201566666674</v>
-      </c>
-    </row>
-    <row r="190" spans="1:27" ht="13.5">
+      <c r="AA189" s="6"/>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>216</v>
       </c>
@@ -17595,12 +17050,9 @@
       <c r="Z190" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA190" s="6">
-        <f t="shared" si="2"/>
-        <v>217.09247400000004</v>
-      </c>
-    </row>
-    <row r="191" spans="1:27" ht="13.5">
+      <c r="AA190" s="6"/>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>217</v>
       </c>
@@ -17679,12 +17131,9 @@
       <c r="Z191" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA191" s="6">
-        <f t="shared" si="2"/>
-        <v>248.72881300000006</v>
-      </c>
-    </row>
-    <row r="192" spans="1:27" ht="13.5">
+      <c r="AA191" s="6"/>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>218</v>
       </c>
@@ -17763,12 +17212,9 @@
       <c r="Z192" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA192" s="6">
-        <f t="shared" si="2"/>
-        <v>308.69644766666676</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27" ht="13.5">
+      <c r="AA192" s="6"/>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>219</v>
       </c>
@@ -17847,12 +17293,9 @@
       <c r="Z193" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA193" s="6">
-        <f t="shared" si="2"/>
-        <v>340.76834133333324</v>
-      </c>
-    </row>
-    <row r="194" spans="1:27" ht="13.5">
+      <c r="AA193" s="6"/>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>220</v>
       </c>
@@ -17931,12 +17374,9 @@
       <c r="Z194" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA194" s="6">
-        <f t="shared" si="2"/>
-        <v>329.26018433333343</v>
-      </c>
-    </row>
-    <row r="195" spans="1:27" ht="13.5">
+      <c r="AA194" s="6"/>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>221</v>
       </c>
@@ -18015,12 +17455,9 @@
       <c r="Z195" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA195" s="6">
-        <f t="shared" si="2"/>
-        <v>331.51358433333354</v>
-      </c>
-    </row>
-    <row r="196" spans="1:27" ht="13.5">
+      <c r="AA195" s="6"/>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>222</v>
       </c>
@@ -18099,12 +17536,9 @@
       <c r="Z196" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA196" s="6">
-        <f t="shared" si="2"/>
-        <v>290.44985233333335</v>
-      </c>
-    </row>
-    <row r="197" spans="1:27" ht="13.5">
+      <c r="AA196" s="6"/>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>223</v>
       </c>
@@ -18183,12 +17617,9 @@
       <c r="Z197" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA197" s="6">
-        <f t="shared" ref="AA197:AA260" si="3">AVERAGE(B197:Y197)</f>
-        <v>202.67110700000001</v>
-      </c>
-    </row>
-    <row r="198" spans="1:27" ht="13.5">
+      <c r="AA197" s="6"/>
+    </row>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>224</v>
       </c>
@@ -18267,12 +17698,9 @@
       <c r="Z198" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA198" s="6">
-        <f t="shared" si="3"/>
-        <v>200.37467733333327</v>
-      </c>
-    </row>
-    <row r="199" spans="1:27" ht="13.5">
+      <c r="AA198" s="6"/>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>225</v>
       </c>
@@ -18351,12 +17779,9 @@
       <c r="Z199" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA199" s="6">
-        <f t="shared" si="3"/>
-        <v>225.59991833333336</v>
-      </c>
-    </row>
-    <row r="200" spans="1:27" ht="13.5">
+      <c r="AA199" s="6"/>
+    </row>
+    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>226</v>
       </c>
@@ -18435,12 +17860,9 @@
       <c r="Z200" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA200" s="6">
-        <f t="shared" si="3"/>
-        <v>195.57184833333338</v>
-      </c>
-    </row>
-    <row r="201" spans="1:27" ht="13.5">
+      <c r="AA200" s="6"/>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>227</v>
       </c>
@@ -18519,12 +17941,9 @@
       <c r="Z201" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA201" s="6">
-        <f t="shared" si="3"/>
-        <v>192.91953433333342</v>
-      </c>
-    </row>
-    <row r="202" spans="1:27" ht="13.5">
+      <c r="AA201" s="6"/>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>228</v>
       </c>
@@ -18603,12 +18022,9 @@
       <c r="Z202" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA202" s="6">
-        <f t="shared" si="3"/>
-        <v>221.74838833333328</v>
-      </c>
-    </row>
-    <row r="203" spans="1:27" ht="13.5">
+      <c r="AA202" s="6"/>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>229</v>
       </c>
@@ -18687,12 +18103,9 @@
       <c r="Z203" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA203" s="6">
-        <f t="shared" si="3"/>
-        <v>198.28332333333333</v>
-      </c>
-    </row>
-    <row r="204" spans="1:27" ht="13.5">
+      <c r="AA203" s="6"/>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>230</v>
       </c>
@@ -18771,12 +18184,9 @@
       <c r="Z204" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA204" s="6">
-        <f t="shared" si="3"/>
-        <v>185.61488433333341</v>
-      </c>
-    </row>
-    <row r="205" spans="1:27" ht="13.5">
+      <c r="AA204" s="6"/>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>231</v>
       </c>
@@ -18855,12 +18265,9 @@
       <c r="Z205" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA205" s="6">
-        <f t="shared" si="3"/>
-        <v>186.27020433333328</v>
-      </c>
-    </row>
-    <row r="206" spans="1:27" ht="13.5">
+      <c r="AA205" s="6"/>
+    </row>
+    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>232</v>
       </c>
@@ -18939,12 +18346,9 @@
       <c r="Z206" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA206" s="6">
-        <f t="shared" si="3"/>
-        <v>224.46189900000002</v>
-      </c>
-    </row>
-    <row r="207" spans="1:27" ht="13.5">
+      <c r="AA206" s="6"/>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>233</v>
       </c>
@@ -19023,12 +18427,9 @@
       <c r="Z207" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA207" s="6">
-        <f t="shared" si="3"/>
-        <v>219.06990900000002</v>
-      </c>
-    </row>
-    <row r="208" spans="1:27" ht="13.5">
+      <c r="AA207" s="6"/>
+    </row>
+    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>234</v>
       </c>
@@ -19107,12 +18508,9 @@
       <c r="Z208" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA208" s="6">
-        <f t="shared" si="3"/>
-        <v>243.96240500000002</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27" ht="13.5">
+      <c r="AA208" s="6"/>
+    </row>
+    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>235</v>
       </c>
@@ -19191,12 +18589,9 @@
       <c r="Z209" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA209" s="6">
-        <f t="shared" si="3"/>
-        <v>247.98094266666678</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27" ht="13.5">
+      <c r="AA209" s="6"/>
+    </row>
+    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>236</v>
       </c>
@@ -19275,12 +18670,9 @@
       <c r="Z210" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA210" s="6">
-        <f t="shared" si="3"/>
-        <v>237.76199133333338</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27" ht="13.5">
+      <c r="AA210" s="6"/>
+    </row>
+    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>237</v>
       </c>
@@ -19359,12 +18751,9 @@
       <c r="Z211" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA211" s="6">
-        <f t="shared" si="3"/>
-        <v>280.85649633333321</v>
-      </c>
-    </row>
-    <row r="212" spans="1:27" ht="13.5">
+      <c r="AA211" s="6"/>
+    </row>
+    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>238</v>
       </c>
@@ -19443,12 +18832,9 @@
       <c r="Z212" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA212" s="6">
-        <f t="shared" si="3"/>
-        <v>306.68667733333342</v>
-      </c>
-    </row>
-    <row r="213" spans="1:27" ht="13.5">
+      <c r="AA212" s="6"/>
+    </row>
+    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>239</v>
       </c>
@@ -19527,12 +18913,9 @@
       <c r="Z213" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA213" s="6">
-        <f t="shared" si="3"/>
-        <v>242.47594466666669</v>
-      </c>
-    </row>
-    <row r="214" spans="1:27" ht="13.5">
+      <c r="AA213" s="6"/>
+    </row>
+    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>240</v>
       </c>
@@ -19611,12 +18994,9 @@
       <c r="Z214" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA214" s="6">
-        <f t="shared" si="3"/>
-        <v>226.42104833333337</v>
-      </c>
-    </row>
-    <row r="215" spans="1:27" ht="13.5">
+      <c r="AA214" s="6"/>
+    </row>
+    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>241</v>
       </c>
@@ -19695,12 +19075,9 @@
       <c r="Z215" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA215" s="6">
-        <f t="shared" si="3"/>
-        <v>218.90672633333338</v>
-      </c>
-    </row>
-    <row r="216" spans="1:27" ht="13.5">
+      <c r="AA215" s="6"/>
+    </row>
+    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>242</v>
       </c>
@@ -19779,12 +19156,9 @@
       <c r="Z216" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA216" s="6">
-        <f t="shared" si="3"/>
-        <v>229.41322466666657</v>
-      </c>
-    </row>
-    <row r="217" spans="1:27" ht="13.5">
+      <c r="AA216" s="6"/>
+    </row>
+    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>243</v>
       </c>
@@ -19863,12 +19237,9 @@
       <c r="Z217" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA217" s="6">
-        <f t="shared" si="3"/>
-        <v>199.50724133333335</v>
-      </c>
-    </row>
-    <row r="218" spans="1:27" ht="13.5">
+      <c r="AA217" s="6"/>
+    </row>
+    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>244</v>
       </c>
@@ -19947,12 +19318,9 @@
       <c r="Z218" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA218" s="6">
-        <f t="shared" si="3"/>
-        <v>188.78990633333339</v>
-      </c>
-    </row>
-    <row r="219" spans="1:27" ht="13.5">
+      <c r="AA218" s="6"/>
+    </row>
+    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>245</v>
       </c>
@@ -20031,12 +19399,9 @@
       <c r="Z219" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA219" s="6">
-        <f t="shared" si="3"/>
-        <v>173.90794000000002</v>
-      </c>
-    </row>
-    <row r="220" spans="1:27" ht="13.5">
+      <c r="AA219" s="6"/>
+    </row>
+    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>246</v>
       </c>
@@ -20115,12 +19480,9 @@
       <c r="Z220" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA220" s="6">
-        <f t="shared" si="3"/>
-        <v>165.06645533333332</v>
-      </c>
-    </row>
-    <row r="221" spans="1:27" ht="13.5">
+      <c r="AA220" s="6"/>
+    </row>
+    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>247</v>
       </c>
@@ -20199,12 +19561,9 @@
       <c r="Z221" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA221" s="6">
-        <f t="shared" si="3"/>
-        <v>153.59600733333329</v>
-      </c>
-    </row>
-    <row r="222" spans="1:27" ht="13.5">
+      <c r="AA221" s="6"/>
+    </row>
+    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>248</v>
       </c>
@@ -20283,12 +19642,9 @@
       <c r="Z222" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA222" s="6">
-        <f t="shared" si="3"/>
-        <v>154.2585253333333</v>
-      </c>
-    </row>
-    <row r="223" spans="1:27" ht="13.5">
+      <c r="AA222" s="6"/>
+    </row>
+    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>249</v>
       </c>
@@ -20367,12 +19723,9 @@
       <c r="Z223" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA223" s="6">
-        <f t="shared" si="3"/>
-        <v>188.6671083333334</v>
-      </c>
-    </row>
-    <row r="224" spans="1:27" ht="13.5">
+      <c r="AA223" s="6"/>
+    </row>
+    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>250</v>
       </c>
@@ -20451,12 +19804,9 @@
       <c r="Z224" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA224" s="6">
-        <f t="shared" si="3"/>
-        <v>188.90392366666671</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27" ht="13.5">
+      <c r="AA224" s="6"/>
+    </row>
+    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>251</v>
       </c>
@@ -20535,12 +19885,9 @@
       <c r="Z225" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA225" s="6">
-        <f t="shared" si="3"/>
-        <v>189.60608299999998</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27" ht="13.5">
+      <c r="AA225" s="6"/>
+    </row>
+    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>252</v>
       </c>
@@ -20619,12 +19966,9 @@
       <c r="Z226" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA226" s="6">
-        <f t="shared" si="3"/>
-        <v>177.05501699999999</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27" ht="13.5">
+      <c r="AA226" s="6"/>
+    </row>
+    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>253</v>
       </c>
@@ -20703,12 +20047,9 @@
       <c r="Z227" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA227" s="6">
-        <f t="shared" si="3"/>
-        <v>163.39788566666664</v>
-      </c>
-    </row>
-    <row r="228" spans="1:27" ht="13.5">
+      <c r="AA227" s="6"/>
+    </row>
+    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>254</v>
       </c>
@@ -20787,12 +20128,9 @@
       <c r="Z228" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA228" s="6">
-        <f t="shared" si="3"/>
-        <v>141.43410433333329</v>
-      </c>
-    </row>
-    <row r="229" spans="1:27" ht="13.5">
+      <c r="AA228" s="6"/>
+    </row>
+    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>255</v>
       </c>
@@ -20871,12 +20209,9 @@
       <c r="Z229" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA229" s="6">
-        <f t="shared" si="3"/>
-        <v>139.71783233333332</v>
-      </c>
-    </row>
-    <row r="230" spans="1:27" ht="13.5">
+      <c r="AA229" s="6"/>
+    </row>
+    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>256</v>
       </c>
@@ -20955,12 +20290,9 @@
       <c r="Z230" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA230" s="6">
-        <f t="shared" si="3"/>
-        <v>134.77656266666668</v>
-      </c>
-    </row>
-    <row r="231" spans="1:27" ht="13.5">
+      <c r="AA230" s="6"/>
+    </row>
+    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>257</v>
       </c>
@@ -21039,12 +20371,9 @@
       <c r="Z231" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA231" s="6">
-        <f t="shared" si="3"/>
-        <v>157.76930000000004</v>
-      </c>
-    </row>
-    <row r="232" spans="1:27" ht="13.5">
+      <c r="AA231" s="6"/>
+    </row>
+    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>258</v>
       </c>
@@ -21123,12 +20452,9 @@
       <c r="Z232" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA232" s="6">
-        <f t="shared" si="3"/>
-        <v>163.28822966666661</v>
-      </c>
-    </row>
-    <row r="233" spans="1:27" ht="13.5">
+      <c r="AA232" s="6"/>
+    </row>
+    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>259</v>
       </c>
@@ -21207,12 +20533,9 @@
       <c r="Z233" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA233" s="6">
-        <f t="shared" si="3"/>
-        <v>137.61875333333333</v>
-      </c>
-    </row>
-    <row r="234" spans="1:27" ht="13.5">
+      <c r="AA233" s="6"/>
+    </row>
+    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>260</v>
       </c>
@@ -21291,12 +20614,9 @@
       <c r="Z234" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA234" s="6">
-        <f t="shared" si="3"/>
-        <v>135.68462566666665</v>
-      </c>
-    </row>
-    <row r="235" spans="1:27" ht="13.5">
+      <c r="AA234" s="6"/>
+    </row>
+    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>261</v>
       </c>
@@ -21375,12 +20695,9 @@
       <c r="Z235" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA235" s="6">
-        <f t="shared" si="3"/>
-        <v>138.47129633333333</v>
-      </c>
-    </row>
-    <row r="236" spans="1:27" ht="13.5">
+      <c r="AA235" s="6"/>
+    </row>
+    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>262</v>
       </c>
@@ -21459,12 +20776,9 @@
       <c r="Z236" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA236" s="6">
-        <f t="shared" si="3"/>
-        <v>120.92453366666662</v>
-      </c>
-    </row>
-    <row r="237" spans="1:27" ht="13.5">
+      <c r="AA236" s="6"/>
+    </row>
+    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>263</v>
       </c>
@@ -21543,12 +20857,9 @@
       <c r="Z237" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA237" s="6">
-        <f t="shared" si="3"/>
-        <v>123.40738400000004</v>
-      </c>
-    </row>
-    <row r="238" spans="1:27" ht="13.5">
+      <c r="AA237" s="6"/>
+    </row>
+    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>264</v>
       </c>
@@ -21627,12 +20938,9 @@
       <c r="Z238" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA238" s="6">
-        <f t="shared" si="3"/>
-        <v>137.52555133333337</v>
-      </c>
-    </row>
-    <row r="239" spans="1:27" ht="13.5">
+      <c r="AA238" s="6"/>
+    </row>
+    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>265</v>
       </c>
@@ -21711,12 +21019,9 @@
       <c r="Z239" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA239" s="6">
-        <f t="shared" si="3"/>
-        <v>131.73533899999998</v>
-      </c>
-    </row>
-    <row r="240" spans="1:27" ht="13.5">
+      <c r="AA239" s="6"/>
+    </row>
+    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>266</v>
       </c>
@@ -21795,12 +21100,9 @@
       <c r="Z240" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA240" s="6">
-        <f t="shared" si="3"/>
-        <v>116.57821733333334</v>
-      </c>
-    </row>
-    <row r="241" spans="1:27" ht="13.5">
+      <c r="AA240" s="6"/>
+    </row>
+    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>267</v>
       </c>
@@ -21879,12 +21181,9 @@
       <c r="Z241" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA241" s="6">
-        <f t="shared" si="3"/>
-        <v>129.47686499999995</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27" ht="13.5">
+      <c r="AA241" s="6"/>
+    </row>
+    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>268</v>
       </c>
@@ -21963,12 +21262,9 @@
       <c r="Z242" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA242" s="6">
-        <f t="shared" si="3"/>
-        <v>106.59983633333333</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27" ht="13.5">
+      <c r="AA242" s="6"/>
+    </row>
+    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>269</v>
       </c>
@@ -22047,12 +21343,9 @@
       <c r="Z243" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA243" s="6">
-        <f t="shared" si="3"/>
-        <v>104.63007400000002</v>
-      </c>
-    </row>
-    <row r="244" spans="1:27" ht="13.5">
+      <c r="AA243" s="6"/>
+    </row>
+    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>270</v>
       </c>
@@ -22131,12 +21424,9 @@
       <c r="Z244" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA244" s="6">
-        <f t="shared" si="3"/>
-        <v>93.424751000000001</v>
-      </c>
-    </row>
-    <row r="245" spans="1:27" ht="13.5">
+      <c r="AA244" s="6"/>
+    </row>
+    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>271</v>
       </c>
@@ -22215,12 +21505,9 @@
       <c r="Z245" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA245" s="6">
-        <f t="shared" si="3"/>
-        <v>134.17772066666669</v>
-      </c>
-    </row>
-    <row r="246" spans="1:27" ht="13.5">
+      <c r="AA245" s="6"/>
+    </row>
+    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>272</v>
       </c>
@@ -22299,12 +21586,9 @@
       <c r="Z246" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA246" s="6">
-        <f t="shared" si="3"/>
-        <v>147.64029066666671</v>
-      </c>
-    </row>
-    <row r="247" spans="1:27" ht="13.5">
+      <c r="AA246" s="6"/>
+    </row>
+    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>273</v>
       </c>
@@ -22383,12 +21667,9 @@
       <c r="Z247" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA247" s="6">
-        <f t="shared" si="3"/>
-        <v>139.15017800000001</v>
-      </c>
-    </row>
-    <row r="248" spans="1:27" ht="13.5">
+      <c r="AA247" s="6"/>
+    </row>
+    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>275</v>
       </c>
@@ -22467,12 +21748,9 @@
       <c r="Z248" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA248" s="6">
-        <f t="shared" si="3"/>
-        <v>160.23132500000008</v>
-      </c>
-    </row>
-    <row r="249" spans="1:27" ht="13.5">
+      <c r="AA248" s="6"/>
+    </row>
+    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>276</v>
       </c>
@@ -22551,12 +21829,9 @@
       <c r="Z249" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA249" s="6">
-        <f t="shared" si="3"/>
-        <v>147.02651200000005</v>
-      </c>
-    </row>
-    <row r="250" spans="1:27" ht="13.5">
+      <c r="AA249" s="6"/>
+    </row>
+    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>277</v>
       </c>
@@ -22635,12 +21910,9 @@
       <c r="Z250" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA250" s="6">
-        <f t="shared" si="3"/>
-        <v>143.87482766666662</v>
-      </c>
-    </row>
-    <row r="251" spans="1:27" ht="13.5">
+      <c r="AA250" s="6"/>
+    </row>
+    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>278</v>
       </c>
@@ -22719,12 +21991,9 @@
       <c r="Z251" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA251" s="6">
-        <f t="shared" si="3"/>
-        <v>138.85902899999996</v>
-      </c>
-    </row>
-    <row r="252" spans="1:27" ht="13.5">
+      <c r="AA251" s="6"/>
+    </row>
+    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>279</v>
       </c>
@@ -22803,12 +22072,9 @@
       <c r="Z252" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA252" s="6">
-        <f t="shared" si="3"/>
-        <v>133.06373700000003</v>
-      </c>
-    </row>
-    <row r="253" spans="1:27" ht="13.5">
+      <c r="AA252" s="6"/>
+    </row>
+    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>280</v>
       </c>
@@ -22887,12 +22153,9 @@
       <c r="Z253" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA253" s="6">
-        <f t="shared" si="3"/>
-        <v>120.11854933333332</v>
-      </c>
-    </row>
-    <row r="254" spans="1:27" ht="13.5">
+      <c r="AA253" s="6"/>
+    </row>
+    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>281</v>
       </c>
@@ -22971,12 +22234,9 @@
       <c r="Z254" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA254" s="6">
-        <f t="shared" si="3"/>
-        <v>104.04479600000002</v>
-      </c>
-    </row>
-    <row r="255" spans="1:27" ht="13.5">
+      <c r="AA254" s="6"/>
+    </row>
+    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>282</v>
       </c>
@@ -23055,12 +22315,9 @@
       <c r="Z255" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA255" s="6">
-        <f t="shared" si="3"/>
-        <v>134.87528566666668</v>
-      </c>
-    </row>
-    <row r="256" spans="1:27" ht="13.5">
+      <c r="AA255" s="6"/>
+    </row>
+    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>283</v>
       </c>
@@ -23139,12 +22396,9 @@
       <c r="Z256" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA256" s="6">
-        <f t="shared" si="3"/>
-        <v>143.5156136666667</v>
-      </c>
-    </row>
-    <row r="257" spans="1:27" ht="13.5">
+      <c r="AA256" s="6"/>
+    </row>
+    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>284</v>
       </c>
@@ -23223,12 +22477,9 @@
       <c r="Z257" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA257" s="6">
-        <f t="shared" si="3"/>
-        <v>149.85392599999992</v>
-      </c>
-    </row>
-    <row r="258" spans="1:27" ht="13.5">
+      <c r="AA257" s="6"/>
+    </row>
+    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>285</v>
       </c>
@@ -23307,12 +22558,9 @@
       <c r="Z258" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA258" s="6">
-        <f t="shared" si="3"/>
-        <v>144.53348100000008</v>
-      </c>
-    </row>
-    <row r="259" spans="1:27" ht="13.5">
+      <c r="AA258" s="6"/>
+    </row>
+    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>286</v>
       </c>
@@ -23391,12 +22639,9 @@
       <c r="Z259" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA259" s="6">
-        <f t="shared" si="3"/>
-        <v>157.30021366666668</v>
-      </c>
-    </row>
-    <row r="260" spans="1:27" ht="13.5">
+      <c r="AA259" s="6"/>
+    </row>
+    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>287</v>
       </c>
@@ -23475,12 +22720,9 @@
       <c r="Z260" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA260" s="6">
-        <f t="shared" si="3"/>
-        <v>152.2252753333334</v>
-      </c>
-    </row>
-    <row r="261" spans="1:27" ht="13.5">
+      <c r="AA260" s="6"/>
+    </row>
+    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>288</v>
       </c>
@@ -23559,12 +22801,9 @@
       <c r="Z261" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA261" s="6">
-        <f t="shared" ref="AA261:AA324" si="4">AVERAGE(B261:Y261)</f>
-        <v>138.6145773333333</v>
-      </c>
-    </row>
-    <row r="262" spans="1:27" ht="13.5">
+      <c r="AA261" s="6"/>
+    </row>
+    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>289</v>
       </c>
@@ -23643,12 +22882,9 @@
       <c r="Z262" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA262" s="6">
-        <f t="shared" si="4"/>
-        <v>146.10017666666664</v>
-      </c>
-    </row>
-    <row r="263" spans="1:27" ht="13.5">
+      <c r="AA262" s="6"/>
+    </row>
+    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>290</v>
       </c>
@@ -23727,12 +22963,9 @@
       <c r="Z263" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA263" s="6">
-        <f t="shared" si="4"/>
-        <v>155.75400299999993</v>
-      </c>
-    </row>
-    <row r="264" spans="1:27" ht="13.5">
+      <c r="AA263" s="6"/>
+    </row>
+    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>291</v>
       </c>
@@ -23811,12 +23044,9 @@
       <c r="Z264" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA264" s="6">
-        <f t="shared" si="4"/>
-        <v>159.727508</v>
-      </c>
-    </row>
-    <row r="265" spans="1:27" ht="13.5">
+      <c r="AA264" s="6"/>
+    </row>
+    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>292</v>
       </c>
@@ -23895,12 +23125,9 @@
       <c r="Z265" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA265" s="6">
-        <f t="shared" si="4"/>
-        <v>154.16330166666665</v>
-      </c>
-    </row>
-    <row r="266" spans="1:27" ht="13.5">
+      <c r="AA265" s="6"/>
+    </row>
+    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>293</v>
       </c>
@@ -23979,12 +23206,9 @@
       <c r="Z266" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA266" s="6">
-        <f t="shared" si="4"/>
-        <v>135.88042899999999</v>
-      </c>
-    </row>
-    <row r="267" spans="1:27" ht="13.5">
+      <c r="AA266" s="6"/>
+    </row>
+    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>294</v>
       </c>
@@ -24063,12 +23287,9 @@
       <c r="Z267" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA267" s="6">
-        <f t="shared" si="4"/>
-        <v>119.15598099999994</v>
-      </c>
-    </row>
-    <row r="268" spans="1:27" ht="13.5">
+      <c r="AA267" s="6"/>
+    </row>
+    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>295</v>
       </c>
@@ -24147,12 +23368,9 @@
       <c r="Z268" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA268" s="6">
-        <f t="shared" si="4"/>
-        <v>118.06233299999998</v>
-      </c>
-    </row>
-    <row r="269" spans="1:27" ht="13.5">
+      <c r="AA268" s="6"/>
+    </row>
+    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>296</v>
       </c>
@@ -24231,12 +23449,9 @@
       <c r="Z269" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA269" s="6">
-        <f t="shared" si="4"/>
-        <v>138.10767366666664</v>
-      </c>
-    </row>
-    <row r="270" spans="1:27" ht="13.5">
+      <c r="AA269" s="6"/>
+    </row>
+    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>297</v>
       </c>
@@ -24315,12 +23530,9 @@
       <c r="Z270" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA270" s="6">
-        <f t="shared" si="4"/>
-        <v>167.08194466666666</v>
-      </c>
-    </row>
-    <row r="271" spans="1:27" ht="13.5">
+      <c r="AA270" s="6"/>
+    </row>
+    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>298</v>
       </c>
@@ -24399,12 +23611,9 @@
       <c r="Z271" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA271" s="6">
-        <f t="shared" si="4"/>
-        <v>162.85100366666668</v>
-      </c>
-    </row>
-    <row r="272" spans="1:27" ht="13.5">
+      <c r="AA271" s="6"/>
+    </row>
+    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>299</v>
       </c>
@@ -24483,12 +23692,9 @@
       <c r="Z272" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA272" s="6">
-        <f t="shared" si="4"/>
-        <v>158.36835433333331</v>
-      </c>
-    </row>
-    <row r="273" spans="1:27" ht="13.5">
+      <c r="AA272" s="6"/>
+    </row>
+    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>300</v>
       </c>
@@ -24567,12 +23773,9 @@
       <c r="Z273" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA273" s="6">
-        <f t="shared" si="4"/>
-        <v>152.20806733333339</v>
-      </c>
-    </row>
-    <row r="274" spans="1:27" ht="13.5">
+      <c r="AA273" s="6"/>
+    </row>
+    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>301</v>
       </c>
@@ -24651,12 +23854,9 @@
       <c r="Z274" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA274" s="6">
-        <f t="shared" si="4"/>
-        <v>152.44670766666667</v>
-      </c>
-    </row>
-    <row r="275" spans="1:27" ht="13.5">
+      <c r="AA274" s="6"/>
+    </row>
+    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>302</v>
       </c>
@@ -24735,12 +23935,9 @@
       <c r="Z275" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA275" s="6">
-        <f t="shared" si="4"/>
-        <v>150.68503433333331</v>
-      </c>
-    </row>
-    <row r="276" spans="1:27" ht="13.5">
+      <c r="AA275" s="6"/>
+    </row>
+    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>303</v>
       </c>
@@ -24819,12 +24016,9 @@
       <c r="Z276" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AA276" s="6">
-        <f t="shared" si="4"/>
-        <v>148.2973026666667</v>
-      </c>
-    </row>
-    <row r="277" spans="1:27" ht="13.5">
+      <c r="AA276" s="6"/>
+    </row>
+    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>304</v>
       </c>
@@ -24903,12 +24097,9 @@
       <c r="Z277" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA277" s="6">
-        <f t="shared" si="4"/>
-        <v>147.63699433333338</v>
-      </c>
-    </row>
-    <row r="278" spans="1:27" ht="13.5">
+      <c r="AA277" s="6"/>
+    </row>
+    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>306</v>
       </c>
@@ -24987,12 +24178,9 @@
       <c r="Z278" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA278" s="6">
-        <f t="shared" si="4"/>
-        <v>148.92528366666664</v>
-      </c>
-    </row>
-    <row r="279" spans="1:27" ht="13.5">
+      <c r="AA278" s="6"/>
+    </row>
+    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>307</v>
       </c>
@@ -25071,12 +24259,9 @@
       <c r="Z279" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA279" s="6">
-        <f t="shared" si="4"/>
-        <v>170.7640753333333</v>
-      </c>
-    </row>
-    <row r="280" spans="1:27" ht="13.5">
+      <c r="AA279" s="6"/>
+    </row>
+    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>308</v>
       </c>
@@ -25155,12 +24340,9 @@
       <c r="Z280" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA280" s="6">
-        <f t="shared" si="4"/>
-        <v>156.35826966666659</v>
-      </c>
-    </row>
-    <row r="281" spans="1:27" ht="13.5">
+      <c r="AA280" s="6"/>
+    </row>
+    <row r="281" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>309</v>
       </c>
@@ -25239,12 +24421,9 @@
       <c r="Z281" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA281" s="6">
-        <f t="shared" si="4"/>
-        <v>153.77834133333329</v>
-      </c>
-    </row>
-    <row r="282" spans="1:27" ht="13.5">
+      <c r="AA281" s="6"/>
+    </row>
+    <row r="282" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>310</v>
       </c>
@@ -25323,12 +24502,9 @@
       <c r="Z282" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA282" s="6">
-        <f t="shared" si="4"/>
-        <v>122.81125000000002</v>
-      </c>
-    </row>
-    <row r="283" spans="1:27" ht="13.5">
+      <c r="AA282" s="6"/>
+    </row>
+    <row r="283" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>311</v>
       </c>
@@ -25407,12 +24583,9 @@
       <c r="Z283" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA283" s="6">
-        <f t="shared" si="4"/>
-        <v>172.22878200000005</v>
-      </c>
-    </row>
-    <row r="284" spans="1:27" ht="13.5">
+      <c r="AA283" s="6"/>
+    </row>
+    <row r="284" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>312</v>
       </c>
@@ -25491,12 +24664,9 @@
       <c r="Z284" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA284" s="6">
-        <f t="shared" si="4"/>
-        <v>169.37187199999997</v>
-      </c>
-    </row>
-    <row r="285" spans="1:27" ht="13.5">
+      <c r="AA284" s="6"/>
+    </row>
+    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>313</v>
       </c>
@@ -25575,12 +24745,9 @@
       <c r="Z285" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA285" s="6">
-        <f t="shared" si="4"/>
-        <v>176.52889466666662</v>
-      </c>
-    </row>
-    <row r="286" spans="1:27" ht="13.5">
+      <c r="AA285" s="6"/>
+    </row>
+    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>314</v>
       </c>
@@ -25659,12 +24826,9 @@
       <c r="Z286" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA286" s="6">
-        <f t="shared" si="4"/>
-        <v>163.81670066666675</v>
-      </c>
-    </row>
-    <row r="287" spans="1:27" ht="13.5">
+      <c r="AA286" s="6"/>
+    </row>
+    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>315</v>
       </c>
@@ -25743,12 +24907,9 @@
       <c r="Z287" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA287" s="6">
-        <f t="shared" si="4"/>
-        <v>163.70701966666664</v>
-      </c>
-    </row>
-    <row r="288" spans="1:27" ht="13.5">
+      <c r="AA287" s="6"/>
+    </row>
+    <row r="288" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>316</v>
       </c>
@@ -25827,12 +24988,9 @@
       <c r="Z288" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA288" s="6">
-        <f t="shared" si="4"/>
-        <v>171.03372833333336</v>
-      </c>
-    </row>
-    <row r="289" spans="1:27" ht="13.5">
+      <c r="AA288" s="6"/>
+    </row>
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>317</v>
       </c>
@@ -25911,12 +25069,9 @@
       <c r="Z289" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA289" s="6">
-        <f t="shared" si="4"/>
-        <v>173.36619733333339</v>
-      </c>
-    </row>
-    <row r="290" spans="1:27" ht="13.5">
+      <c r="AA289" s="6"/>
+    </row>
+    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>318</v>
       </c>
@@ -25995,12 +25150,9 @@
       <c r="Z290" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA290" s="6">
-        <f t="shared" si="4"/>
-        <v>180.53926733333336</v>
-      </c>
-    </row>
-    <row r="291" spans="1:27" ht="13.5">
+      <c r="AA290" s="6"/>
+    </row>
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>319</v>
       </c>
@@ -26079,12 +25231,9 @@
       <c r="Z291" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA291" s="6">
-        <f t="shared" si="4"/>
-        <v>176.89198433333331</v>
-      </c>
-    </row>
-    <row r="292" spans="1:27" ht="13.5">
+      <c r="AA291" s="6"/>
+    </row>
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>320</v>
       </c>
@@ -26163,12 +25312,9 @@
       <c r="Z292" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA292" s="6">
-        <f t="shared" si="4"/>
-        <v>194.64163233333338</v>
-      </c>
-    </row>
-    <row r="293" spans="1:27" ht="13.5">
+      <c r="AA292" s="6"/>
+    </row>
+    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>321</v>
       </c>
@@ -26247,12 +25393,9 @@
       <c r="Z293" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA293" s="6">
-        <f t="shared" si="4"/>
-        <v>190.77662766666654</v>
-      </c>
-    </row>
-    <row r="294" spans="1:27" ht="13.5">
+      <c r="AA293" s="6"/>
+    </row>
+    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>322</v>
       </c>
@@ -26331,12 +25474,9 @@
       <c r="Z294" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA294" s="6">
-        <f t="shared" si="4"/>
-        <v>186.6235313333334</v>
-      </c>
-    </row>
-    <row r="295" spans="1:27" ht="13.5">
+      <c r="AA294" s="6"/>
+    </row>
+    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>323</v>
       </c>
@@ -26415,12 +25555,9 @@
       <c r="Z295" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA295" s="6">
-        <f t="shared" si="4"/>
-        <v>184.95629799999992</v>
-      </c>
-    </row>
-    <row r="296" spans="1:27" ht="13.5">
+      <c r="AA295" s="6"/>
+    </row>
+    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>324</v>
       </c>
@@ -26499,12 +25636,9 @@
       <c r="Z296" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA296" s="6">
-        <f t="shared" si="4"/>
-        <v>202.00450033333331</v>
-      </c>
-    </row>
-    <row r="297" spans="1:27" ht="13.5">
+      <c r="AA296" s="6"/>
+    </row>
+    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>325</v>
       </c>
@@ -26583,12 +25717,9 @@
       <c r="Z297" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA297" s="6">
-        <f t="shared" si="4"/>
-        <v>200.85500033333335</v>
-      </c>
-    </row>
-    <row r="298" spans="1:27" ht="13.5">
+      <c r="AA297" s="6"/>
+    </row>
+    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>326</v>
       </c>
@@ -26667,12 +25798,9 @@
       <c r="Z298" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA298" s="6">
-        <f t="shared" si="4"/>
-        <v>259.27210466666662</v>
-      </c>
-    </row>
-    <row r="299" spans="1:27" ht="13.5">
+      <c r="AA298" s="6"/>
+    </row>
+    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>327</v>
       </c>
@@ -26751,12 +25879,9 @@
       <c r="Z299" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA299" s="6">
-        <f t="shared" si="4"/>
-        <v>263.70613199999997</v>
-      </c>
-    </row>
-    <row r="300" spans="1:27" ht="13.5">
+      <c r="AA299" s="6"/>
+    </row>
+    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>328</v>
       </c>
@@ -26835,12 +25960,9 @@
       <c r="Z300" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA300" s="6">
-        <f t="shared" si="4"/>
-        <v>265.07476066666675</v>
-      </c>
-    </row>
-    <row r="301" spans="1:27" ht="13.5">
+      <c r="AA300" s="6"/>
+    </row>
+    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>329</v>
       </c>
@@ -26919,12 +26041,9 @@
       <c r="Z301" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA301" s="6">
-        <f t="shared" si="4"/>
-        <v>269.51173</v>
-      </c>
-    </row>
-    <row r="302" spans="1:27" ht="13.5">
+      <c r="AA301" s="6"/>
+    </row>
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>330</v>
       </c>
@@ -27003,12 +26122,9 @@
       <c r="Z302" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA302" s="6">
-        <f t="shared" si="4"/>
-        <v>276.27907599999998</v>
-      </c>
-    </row>
-    <row r="303" spans="1:27" ht="13.5">
+      <c r="AA302" s="6"/>
+    </row>
+    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>331</v>
       </c>
@@ -27087,12 +26203,9 @@
       <c r="Z303" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA303" s="6">
-        <f t="shared" si="4"/>
-        <v>260.44735866666662</v>
-      </c>
-    </row>
-    <row r="304" spans="1:27" ht="13.5">
+      <c r="AA303" s="6"/>
+    </row>
+    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>332</v>
       </c>
@@ -27171,12 +26284,9 @@
       <c r="Z304" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA304" s="6">
-        <f t="shared" si="4"/>
-        <v>291.9215103333334</v>
-      </c>
-    </row>
-    <row r="305" spans="1:27" ht="13.5">
+      <c r="AA304" s="6"/>
+    </row>
+    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>333</v>
       </c>
@@ -27255,12 +26365,9 @@
       <c r="Z305" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA305" s="6">
-        <f t="shared" si="4"/>
-        <v>309.71179233333322</v>
-      </c>
-    </row>
-    <row r="306" spans="1:27" ht="13.5">
+      <c r="AA305" s="6"/>
+    </row>
+    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>334</v>
       </c>
@@ -27339,12 +26446,9 @@
       <c r="Z306" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA306" s="6">
-        <f t="shared" si="4"/>
-        <v>383.81239633333342</v>
-      </c>
-    </row>
-    <row r="307" spans="1:27" ht="13.5">
+      <c r="AA306" s="6"/>
+    </row>
+    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>335</v>
       </c>
@@ -27423,12 +26527,9 @@
       <c r="Z307" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AA307" s="6">
-        <f t="shared" si="4"/>
-        <v>382.73515966666679</v>
-      </c>
-    </row>
-    <row r="308" spans="1:27" ht="13.5">
+      <c r="AA307" s="6"/>
+    </row>
+    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>336</v>
       </c>
@@ -27507,12 +26608,9 @@
       <c r="Z308" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA308" s="6">
-        <f t="shared" si="4"/>
-        <v>420.39825933333344</v>
-      </c>
-    </row>
-    <row r="309" spans="1:27" ht="13.5">
+      <c r="AA308" s="6"/>
+    </row>
+    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>337</v>
       </c>
@@ -27591,12 +26689,9 @@
       <c r="Z309" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA309" s="6">
-        <f t="shared" si="4"/>
-        <v>350.46441033333326</v>
-      </c>
-    </row>
-    <row r="310" spans="1:27" ht="13.5">
+      <c r="AA309" s="6"/>
+    </row>
+    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>338</v>
       </c>
@@ -27675,12 +26770,9 @@
       <c r="Z310" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA310" s="6">
-        <f t="shared" si="4"/>
-        <v>277.84784066666674</v>
-      </c>
-    </row>
-    <row r="311" spans="1:27" ht="13.5">
+      <c r="AA310" s="6"/>
+    </row>
+    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>339</v>
       </c>
@@ -27759,12 +26851,9 @@
       <c r="Z311" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA311" s="6">
-        <f t="shared" si="4"/>
-        <v>394.77117700000025</v>
-      </c>
-    </row>
-    <row r="312" spans="1:27" ht="13.5">
+      <c r="AA311" s="6"/>
+    </row>
+    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>340</v>
       </c>
@@ -27843,12 +26932,9 @@
       <c r="Z312" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA312" s="6">
-        <f t="shared" si="4"/>
-        <v>331.43141966666661</v>
-      </c>
-    </row>
-    <row r="313" spans="1:27" ht="13.5">
+      <c r="AA312" s="6"/>
+    </row>
+    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>341</v>
       </c>
@@ -27927,12 +27013,9 @@
       <c r="Z313" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA313" s="6">
-        <f t="shared" si="4"/>
-        <v>294.1721813333333</v>
-      </c>
-    </row>
-    <row r="314" spans="1:27" ht="13.5">
+      <c r="AA313" s="6"/>
+    </row>
+    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>342</v>
       </c>
@@ -28011,12 +27094,9 @@
       <c r="Z314" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA314" s="6">
-        <f t="shared" si="4"/>
-        <v>229.56075933333332</v>
-      </c>
-    </row>
-    <row r="315" spans="1:27" ht="13.5">
+      <c r="AA314" s="6"/>
+    </row>
+    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>343</v>
       </c>
@@ -28095,12 +27175,9 @@
       <c r="Z315" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA315" s="6">
-        <f t="shared" si="4"/>
-        <v>190.95697066666662</v>
-      </c>
-    </row>
-    <row r="316" spans="1:27" ht="13.5">
+      <c r="AA315" s="6"/>
+    </row>
+    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>344</v>
       </c>
@@ -28179,12 +27256,9 @@
       <c r="Z316" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA316" s="6">
-        <f t="shared" si="4"/>
-        <v>169.14672599999997</v>
-      </c>
-    </row>
-    <row r="317" spans="1:27" ht="13.5">
+      <c r="AA316" s="6"/>
+    </row>
+    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>345</v>
       </c>
@@ -28263,12 +27337,9 @@
       <c r="Z317" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA317" s="6">
-        <f t="shared" si="4"/>
-        <v>156.58082266666662</v>
-      </c>
-    </row>
-    <row r="318" spans="1:27" ht="13.5">
+      <c r="AA317" s="6"/>
+    </row>
+    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>346</v>
       </c>
@@ -28347,12 +27418,9 @@
       <c r="Z318" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA318" s="6">
-        <f t="shared" si="4"/>
-        <v>178.36597333333341</v>
-      </c>
-    </row>
-    <row r="319" spans="1:27" ht="13.5">
+      <c r="AA318" s="6"/>
+    </row>
+    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>347</v>
       </c>
@@ -28431,12 +27499,9 @@
       <c r="Z319" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA319" s="6">
-        <f t="shared" si="4"/>
-        <v>192.113843</v>
-      </c>
-    </row>
-    <row r="320" spans="1:27" ht="13.5">
+      <c r="AA319" s="6"/>
+    </row>
+    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>348</v>
       </c>
@@ -28515,12 +27580,9 @@
       <c r="Z320" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA320" s="6">
-        <f t="shared" si="4"/>
-        <v>183.97817433333333</v>
-      </c>
-    </row>
-    <row r="321" spans="1:27" ht="13.5">
+      <c r="AA320" s="6"/>
+    </row>
+    <row r="321" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>349</v>
       </c>
@@ -28599,12 +27661,9 @@
       <c r="Z321" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA321" s="6">
-        <f t="shared" si="4"/>
-        <v>169.268789</v>
-      </c>
-    </row>
-    <row r="322" spans="1:27" ht="13.5">
+      <c r="AA321" s="6"/>
+    </row>
+    <row r="322" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>350</v>
       </c>
@@ -28683,12 +27742,9 @@
       <c r="Z322" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA322" s="6">
-        <f t="shared" si="4"/>
-        <v>163.415288</v>
-      </c>
-    </row>
-    <row r="323" spans="1:27" ht="13.5">
+      <c r="AA322" s="6"/>
+    </row>
+    <row r="323" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>351</v>
       </c>
@@ -28767,12 +27823,9 @@
       <c r="Z323" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA323" s="6">
-        <f t="shared" si="4"/>
-        <v>155.13018599999998</v>
-      </c>
-    </row>
-    <row r="324" spans="1:27" ht="13.5">
+      <c r="AA323" s="6"/>
+    </row>
+    <row r="324" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>352</v>
       </c>
@@ -28851,12 +27904,9 @@
       <c r="Z324" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA324" s="6">
-        <f t="shared" si="4"/>
-        <v>167.53685966666669</v>
-      </c>
-    </row>
-    <row r="325" spans="1:27" ht="13.5">
+      <c r="AA324" s="6"/>
+    </row>
+    <row r="325" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>353</v>
       </c>
@@ -28935,12 +27985,9 @@
       <c r="Z325" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA325" s="6">
-        <f t="shared" ref="AA325:AA368" si="5">AVERAGE(B325:Y325)</f>
-        <v>167.52864566666668</v>
-      </c>
-    </row>
-    <row r="326" spans="1:27" ht="13.5">
+      <c r="AA325" s="6"/>
+    </row>
+    <row r="326" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>354</v>
       </c>
@@ -29019,12 +28066,9 @@
       <c r="Z326" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA326" s="6">
-        <f t="shared" si="5"/>
-        <v>175.67329866666671</v>
-      </c>
-    </row>
-    <row r="327" spans="1:27" ht="13.5">
+      <c r="AA326" s="6"/>
+    </row>
+    <row r="327" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>355</v>
       </c>
@@ -29103,12 +28147,9 @@
       <c r="Z327" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA327" s="6">
-        <f t="shared" si="5"/>
-        <v>173.75499599999992</v>
-      </c>
-    </row>
-    <row r="328" spans="1:27" ht="13.5">
+      <c r="AA327" s="6"/>
+    </row>
+    <row r="328" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>356</v>
       </c>
@@ -29187,12 +28228,9 @@
       <c r="Z328" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA328" s="6">
-        <f t="shared" si="5"/>
-        <v>178.87751266666669</v>
-      </c>
-    </row>
-    <row r="329" spans="1:27" ht="13.5">
+      <c r="AA328" s="6"/>
+    </row>
+    <row r="329" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>357</v>
       </c>
@@ -29271,12 +28309,9 @@
       <c r="Z329" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA329" s="6">
-        <f t="shared" si="5"/>
-        <v>174.49957966666662</v>
-      </c>
-    </row>
-    <row r="330" spans="1:27" ht="13.5">
+      <c r="AA329" s="6"/>
+    </row>
+    <row r="330" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>358</v>
       </c>
@@ -29355,12 +28390,9 @@
       <c r="Z330" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA330" s="6">
-        <f t="shared" si="5"/>
-        <v>166.66564566666665</v>
-      </c>
-    </row>
-    <row r="331" spans="1:27" ht="13.5">
+      <c r="AA330" s="6"/>
+    </row>
+    <row r="331" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>359</v>
       </c>
@@ -29439,12 +28471,9 @@
       <c r="Z331" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA331" s="6">
-        <f t="shared" si="5"/>
-        <v>169.43748899999997</v>
-      </c>
-    </row>
-    <row r="332" spans="1:27" ht="13.5">
+      <c r="AA331" s="6"/>
+    </row>
+    <row r="332" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>360</v>
       </c>
@@ -29523,12 +28552,9 @@
       <c r="Z332" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA332" s="6">
-        <f t="shared" si="5"/>
-        <v>170.80035333333331</v>
-      </c>
-    </row>
-    <row r="333" spans="1:27" ht="13.5">
+      <c r="AA332" s="6"/>
+    </row>
+    <row r="333" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>361</v>
       </c>
@@ -29607,12 +28633,9 @@
       <c r="Z333" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA333" s="6">
-        <f t="shared" si="5"/>
-        <v>172.34368833333329</v>
-      </c>
-    </row>
-    <row r="334" spans="1:27" ht="13.5">
+      <c r="AA333" s="6"/>
+    </row>
+    <row r="334" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>362</v>
       </c>
@@ -29691,12 +28714,9 @@
       <c r="Z334" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA334" s="6">
-        <f t="shared" si="5"/>
-        <v>153.54923966666669</v>
-      </c>
-    </row>
-    <row r="335" spans="1:27" ht="13.5">
+      <c r="AA334" s="6"/>
+    </row>
+    <row r="335" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>363</v>
       </c>
@@ -29775,12 +28795,9 @@
       <c r="Z335" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA335" s="6">
-        <f t="shared" si="5"/>
-        <v>175.61470533333332</v>
-      </c>
-    </row>
-    <row r="336" spans="1:27" ht="13.5">
+      <c r="AA335" s="6"/>
+    </row>
+    <row r="336" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>364</v>
       </c>
@@ -29859,12 +28876,9 @@
       <c r="Z336" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA336" s="6">
-        <f t="shared" si="5"/>
-        <v>176.97070199999996</v>
-      </c>
-    </row>
-    <row r="337" spans="1:27" ht="13.5">
+      <c r="AA336" s="6"/>
+    </row>
+    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>365</v>
       </c>
@@ -29943,12 +28957,9 @@
       <c r="Z337" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AA337" s="6">
-        <f t="shared" si="5"/>
-        <v>230.70961799999995</v>
-      </c>
-    </row>
-    <row r="338" spans="1:27" ht="13.5">
+      <c r="AA337" s="6"/>
+    </row>
+    <row r="338" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>366</v>
       </c>
@@ -30027,12 +29038,9 @@
       <c r="Z338" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA338" s="6">
-        <f t="shared" si="5"/>
-        <v>183.94701366666672</v>
-      </c>
-    </row>
-    <row r="339" spans="1:27" ht="13.5">
+      <c r="AA338" s="6"/>
+    </row>
+    <row r="339" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>367</v>
       </c>
@@ -30111,12 +29119,9 @@
       <c r="Z339" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA339" s="6">
-        <f t="shared" si="5"/>
-        <v>208.31518366666668</v>
-      </c>
-    </row>
-    <row r="340" spans="1:27" ht="13.5">
+      <c r="AA339" s="6"/>
+    </row>
+    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>368</v>
       </c>
@@ -30195,12 +29200,9 @@
       <c r="Z340" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA340" s="6">
-        <f t="shared" si="5"/>
-        <v>172.02181933333341</v>
-      </c>
-    </row>
-    <row r="341" spans="1:27" ht="13.5">
+      <c r="AA340" s="6"/>
+    </row>
+    <row r="341" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>369</v>
       </c>
@@ -30279,12 +29281,9 @@
       <c r="Z341" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA341" s="6">
-        <f t="shared" si="5"/>
-        <v>168.59210433333337</v>
-      </c>
-    </row>
-    <row r="342" spans="1:27" ht="13.5">
+      <c r="AA341" s="6"/>
+    </row>
+    <row r="342" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>370</v>
       </c>
@@ -30363,12 +29362,9 @@
       <c r="Z342" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA342" s="6">
-        <f t="shared" si="5"/>
-        <v>152.73425733333332</v>
-      </c>
-    </row>
-    <row r="343" spans="1:27" ht="13.5">
+      <c r="AA342" s="6"/>
+    </row>
+    <row r="343" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>371</v>
       </c>
@@ -30447,12 +29443,9 @@
       <c r="Z343" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA343" s="6">
-        <f t="shared" si="5"/>
-        <v>159.68284833333334</v>
-      </c>
-    </row>
-    <row r="344" spans="1:27" ht="13.5">
+      <c r="AA343" s="6"/>
+    </row>
+    <row r="344" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>372</v>
       </c>
@@ -30531,12 +29524,9 @@
       <c r="Z344" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA344" s="6">
-        <f t="shared" si="5"/>
-        <v>179.0157663333334</v>
-      </c>
-    </row>
-    <row r="345" spans="1:27" ht="13.5">
+      <c r="AA344" s="6"/>
+    </row>
+    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>373</v>
       </c>
@@ -30615,12 +29605,9 @@
       <c r="Z345" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA345" s="6">
-        <f t="shared" si="5"/>
-        <v>173.56249666666665</v>
-      </c>
-    </row>
-    <row r="346" spans="1:27" ht="13.5">
+      <c r="AA345" s="6"/>
+    </row>
+    <row r="346" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>374</v>
       </c>
@@ -30699,12 +29686,9 @@
       <c r="Z346" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA346" s="6">
-        <f t="shared" si="5"/>
-        <v>189.75772066666664</v>
-      </c>
-    </row>
-    <row r="347" spans="1:27" ht="13.5">
+      <c r="AA346" s="6"/>
+    </row>
+    <row r="347" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>375</v>
       </c>
@@ -30783,12 +29767,9 @@
       <c r="Z347" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA347" s="6">
-        <f t="shared" si="5"/>
-        <v>182.32834366666668</v>
-      </c>
-    </row>
-    <row r="348" spans="1:27" ht="13.5">
+      <c r="AA347" s="6"/>
+    </row>
+    <row r="348" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>376</v>
       </c>
@@ -30867,12 +29848,9 @@
       <c r="Z348" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA348" s="6">
-        <f t="shared" si="5"/>
-        <v>178.19948966666666</v>
-      </c>
-    </row>
-    <row r="349" spans="1:27" ht="13.5">
+      <c r="AA348" s="6"/>
+    </row>
+    <row r="349" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>377</v>
       </c>
@@ -30951,12 +29929,9 @@
       <c r="Z349" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA349" s="6">
-        <f t="shared" si="5"/>
-        <v>169.2945776666667</v>
-      </c>
-    </row>
-    <row r="350" spans="1:27" ht="13.5">
+      <c r="AA349" s="6"/>
+    </row>
+    <row r="350" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>378</v>
       </c>
@@ -31035,12 +30010,9 @@
       <c r="Z350" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA350" s="6">
-        <f t="shared" si="5"/>
-        <v>154.59092100000004</v>
-      </c>
-    </row>
-    <row r="351" spans="1:27" ht="13.5">
+      <c r="AA350" s="6"/>
+    </row>
+    <row r="351" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>379</v>
       </c>
@@ -31119,12 +30091,9 @@
       <c r="Z351" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA351" s="6">
-        <f t="shared" si="5"/>
-        <v>173.03156233333331</v>
-      </c>
-    </row>
-    <row r="352" spans="1:27" ht="13.5">
+      <c r="AA351" s="6"/>
+    </row>
+    <row r="352" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>380</v>
       </c>
@@ -31203,12 +30172,9 @@
       <c r="Z352" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA352" s="6">
-        <f t="shared" si="5"/>
-        <v>178.73422600000001</v>
-      </c>
-    </row>
-    <row r="353" spans="1:27" ht="13.5">
+      <c r="AA352" s="6"/>
+    </row>
+    <row r="353" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>381</v>
       </c>
@@ -31287,12 +30253,9 @@
       <c r="Z353" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA353" s="6">
-        <f t="shared" si="5"/>
-        <v>180.12804733333337</v>
-      </c>
-    </row>
-    <row r="354" spans="1:27" ht="13.5">
+      <c r="AA353" s="6"/>
+    </row>
+    <row r="354" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>382</v>
       </c>
@@ -31371,12 +30334,9 @@
       <c r="Z354" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA354" s="6">
-        <f t="shared" si="5"/>
-        <v>187.18222866666665</v>
-      </c>
-    </row>
-    <row r="355" spans="1:27" ht="13.5">
+      <c r="AA354" s="6"/>
+    </row>
+    <row r="355" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>383</v>
       </c>
@@ -31455,12 +30415,9 @@
       <c r="Z355" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA355" s="6">
-        <f t="shared" si="5"/>
-        <v>193.1047573333334</v>
-      </c>
-    </row>
-    <row r="356" spans="1:27" ht="13.5">
+      <c r="AA355" s="6"/>
+    </row>
+    <row r="356" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>384</v>
       </c>
@@ -31539,12 +30496,9 @@
       <c r="Z356" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA356" s="6">
-        <f t="shared" si="5"/>
-        <v>173.182109</v>
-      </c>
-    </row>
-    <row r="357" spans="1:27" ht="13.5">
+      <c r="AA356" s="6"/>
+    </row>
+    <row r="357" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>385</v>
       </c>
@@ -31623,12 +30577,9 @@
       <c r="Z357" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA357" s="6">
-        <f t="shared" si="5"/>
-        <v>164.87230399999996</v>
-      </c>
-    </row>
-    <row r="358" spans="1:27" ht="13.5">
+      <c r="AA357" s="6"/>
+    </row>
+    <row r="358" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>386</v>
       </c>
@@ -31707,12 +30658,9 @@
       <c r="Z358" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA358" s="6">
-        <f t="shared" si="5"/>
-        <v>164.39548133333327</v>
-      </c>
-    </row>
-    <row r="359" spans="1:27" ht="13.5">
+      <c r="AA358" s="6"/>
+    </row>
+    <row r="359" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>387</v>
       </c>
@@ -31791,12 +30739,9 @@
       <c r="Z359" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA359" s="6">
-        <f t="shared" si="5"/>
-        <v>166.73431533333337</v>
-      </c>
-    </row>
-    <row r="360" spans="1:27" ht="13.5">
+      <c r="AA359" s="6"/>
+    </row>
+    <row r="360" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>388</v>
       </c>
@@ -31875,12 +30820,9 @@
       <c r="Z360" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA360" s="6">
-        <f t="shared" si="5"/>
-        <v>159.37114400000002</v>
-      </c>
-    </row>
-    <row r="361" spans="1:27" ht="13.5">
+      <c r="AA360" s="6"/>
+    </row>
+    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>389</v>
       </c>
@@ -31959,12 +30901,9 @@
       <c r="Z361" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA361" s="6">
-        <f t="shared" si="5"/>
-        <v>152.96975699999996</v>
-      </c>
-    </row>
-    <row r="362" spans="1:27" ht="13.5">
+      <c r="AA361" s="6"/>
+    </row>
+    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>390</v>
       </c>
@@ -32043,12 +30982,9 @@
       <c r="Z362" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA362" s="6">
-        <f t="shared" si="5"/>
-        <v>103.83159233333332</v>
-      </c>
-    </row>
-    <row r="363" spans="1:27" ht="13.5">
+      <c r="AA362" s="6"/>
+    </row>
+    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>391</v>
       </c>
@@ -32127,12 +31063,9 @@
       <c r="Z363" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA363" s="6">
-        <f t="shared" si="5"/>
-        <v>110.98399933333332</v>
-      </c>
-    </row>
-    <row r="364" spans="1:27" ht="13.5">
+      <c r="AA363" s="6"/>
+    </row>
+    <row r="364" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>392</v>
       </c>
@@ -32211,12 +31144,9 @@
       <c r="Z364" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA364" s="6">
-        <f t="shared" si="5"/>
-        <v>102.97215566666669</v>
-      </c>
-    </row>
-    <row r="365" spans="1:27" ht="13.5">
+      <c r="AA364" s="6"/>
+    </row>
+    <row r="365" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>393</v>
       </c>
@@ -32295,12 +31225,9 @@
       <c r="Z365" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA365" s="6">
-        <f t="shared" si="5"/>
-        <v>109.20848466666668</v>
-      </c>
-    </row>
-    <row r="366" spans="1:27" ht="13.5">
+      <c r="AA365" s="6"/>
+    </row>
+    <row r="366" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>394</v>
       </c>
@@ -32379,12 +31306,9 @@
       <c r="Z366" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA366" s="6">
-        <f t="shared" si="5"/>
-        <v>151.53580633333331</v>
-      </c>
-    </row>
-    <row r="367" spans="1:27" ht="13.5">
+      <c r="AA366" s="6"/>
+    </row>
+    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>395</v>
       </c>
@@ -32463,12 +31387,9 @@
       <c r="Z367" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA367" s="6">
-        <f t="shared" si="5"/>
-        <v>165.54823366666673</v>
-      </c>
-    </row>
-    <row r="368" spans="1:27" ht="13.5">
+      <c r="AA367" s="6"/>
+    </row>
+    <row r="368" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>396</v>
       </c>
@@ -32547,17 +31468,11 @@
       <c r="Z368" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA368" s="6">
-        <f t="shared" si="5"/>
-        <v>175.19409566666675</v>
-      </c>
-    </row>
-    <row r="369" spans="27:27" ht="409.6" hidden="1" customHeight="1"/>
-    <row r="370" spans="27:27" ht="12.95" customHeight="1">
-      <c r="AA370" s="6">
-        <f>AVERAGE(AA4:AA368)</f>
-        <v>177.3509827707764</v>
-      </c>
+      <c r="AA368" s="6"/>
+    </row>
+    <row r="369" spans="27:27" ht="409.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" spans="27:27" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA370" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -32713,12 +31628,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -32727,14 +31636,43 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A9DD964-A295-4E6D-848F-32B119DD3E50}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A9DD964-A295-4E6D-848F-32B119DD3E50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e48ec5c2-614c-49e6-a81a-ca54d4b077b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F8977D5-A2EA-4FAC-BFCA-14447AF1E1F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C229A9A8-D6CA-4C8D-B9E6-B9541B2D8C8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C229A9A8-D6CA-4C8D-B9E6-B9541B2D8C8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F8977D5-A2EA-4FAC-BFCA-14447AF1E1F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>